--- a/BackTest/2019-10-16 BackTest BAT.xlsx
+++ b/BackTest/2019-10-16 BackTest BAT.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>7</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>20</v>
+      </c>
       <c r="L12" t="n">
         <v>266.2</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>7</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>50</v>
+      </c>
       <c r="L13" t="n">
         <v>266.3</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>8</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>20</v>
+      </c>
       <c r="L14" t="n">
         <v>266.4</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>8</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>20</v>
+      </c>
       <c r="L15" t="n">
         <v>266.5</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>10</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>20</v>
+      </c>
       <c r="L16" t="n">
         <v>266.8</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>11</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
       <c r="L17" t="n">
         <v>266.8</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>12</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
       <c r="L18" t="n">
         <v>266.7</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>14</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>-42.85714285714285</v>
+      </c>
       <c r="L19" t="n">
         <v>266.5</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>15</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>-25</v>
+      </c>
       <c r="L20" t="n">
         <v>266.3</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>17</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-40</v>
+      </c>
       <c r="L21" t="n">
         <v>265.9</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>18</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>-27.27272727272727</v>
+      </c>
       <c r="L22" t="n">
         <v>265.6</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>18</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.5</v>
+        <v>-20</v>
       </c>
       <c r="L23" t="n">
         <v>265.3</v>
@@ -1466,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="K24" t="n">
-        <v>-12.5</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L24" t="n">
         <v>265</v>
@@ -1515,7 +1537,7 @@
         <v>19</v>
       </c>
       <c r="K25" t="n">
-        <v>-12.5</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L25" t="n">
         <v>264.7</v>
@@ -1564,7 +1586,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L26" t="n">
         <v>264.3</v>
@@ -1613,7 +1635,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>-20</v>
+        <v>-25</v>
       </c>
       <c r="L27" t="n">
         <v>264</v>
@@ -1662,7 +1684,7 @@
         <v>20</v>
       </c>
       <c r="K28" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
         <v>263.8</v>
@@ -1711,7 +1733,7 @@
         <v>20</v>
       </c>
       <c r="K29" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L29" t="n">
         <v>263.8</v>
@@ -1760,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="K30" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>263.6</v>
@@ -1809,7 +1831,7 @@
         <v>23</v>
       </c>
       <c r="K31" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L31" t="n">
         <v>263.4</v>
@@ -1860,7 +1882,7 @@
         <v>23</v>
       </c>
       <c r="K32" t="n">
-        <v>-37.5</v>
+        <v>-60</v>
       </c>
       <c r="L32" t="n">
         <v>263.1</v>
@@ -1911,7 +1933,7 @@
         <v>25</v>
       </c>
       <c r="K33" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>263</v>
@@ -1962,7 +1984,7 @@
         <v>25</v>
       </c>
       <c r="K34" t="n">
-        <v>-17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>263</v>
@@ -2013,7 +2035,7 @@
         <v>27</v>
       </c>
       <c r="K35" t="n">
-        <v>-26.31578947368421</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L35" t="n">
         <v>262.8</v>
@@ -2064,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="K36" t="n">
-        <v>-50</v>
+        <v>-60</v>
       </c>
       <c r="L36" t="n">
         <v>262.2</v>
@@ -2115,7 +2137,7 @@
         <v>34</v>
       </c>
       <c r="K37" t="n">
-        <v>-21.73913043478261</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L37" t="n">
         <v>262</v>
@@ -2166,7 +2188,7 @@
         <v>34</v>
       </c>
       <c r="K38" t="n">
-        <v>-18.18181818181818</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L38" t="n">
         <v>261.8</v>
@@ -2268,7 +2290,7 @@
         <v>35</v>
       </c>
       <c r="K40" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>261.3</v>
@@ -2319,7 +2341,7 @@
         <v>36</v>
       </c>
       <c r="K41" t="n">
-        <v>-15.78947368421053</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L41" t="n">
         <v>261.2</v>
@@ -2370,7 +2392,7 @@
         <v>40</v>
       </c>
       <c r="K42" t="n">
-        <v>-36.36363636363637</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L42" t="n">
         <v>260.7</v>
@@ -2421,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="K43" t="n">
-        <v>-30.43478260869566</v>
+        <v>-37.5</v>
       </c>
       <c r="L43" t="n">
         <v>260.1</v>
@@ -2472,7 +2494,7 @@
         <v>41</v>
       </c>
       <c r="K44" t="n">
-        <v>-27.27272727272727</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L44" t="n">
         <v>259.5</v>
@@ -2523,7 +2545,7 @@
         <v>41</v>
       </c>
       <c r="K45" t="n">
-        <v>-27.27272727272727</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L45" t="n">
         <v>259.1</v>
@@ -2574,7 +2596,7 @@
         <v>41</v>
       </c>
       <c r="K46" t="n">
-        <v>-33.33333333333333</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L46" t="n">
         <v>259</v>
@@ -2625,7 +2647,7 @@
         <v>42</v>
       </c>
       <c r="K47" t="n">
-        <v>-27.27272727272727</v>
+        <v>-50</v>
       </c>
       <c r="L47" t="n">
         <v>258.6</v>
@@ -2676,7 +2698,7 @@
         <v>45</v>
       </c>
       <c r="K48" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>258.5</v>
@@ -2727,7 +2749,7 @@
         <v>47</v>
       </c>
       <c r="K49" t="n">
-        <v>-3.703703703703703</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L49" t="n">
         <v>258.7</v>
@@ -2778,7 +2800,7 @@
         <v>49</v>
       </c>
       <c r="K50" t="n">
-        <v>7.142857142857142</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L50" t="n">
         <v>259.1</v>
@@ -2829,7 +2851,7 @@
         <v>51</v>
       </c>
       <c r="K51" t="n">
-        <v>7.142857142857142</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L51" t="n">
         <v>259.4</v>
@@ -2880,7 +2902,7 @@
         <v>53</v>
       </c>
       <c r="K52" t="n">
-        <v>13.33333333333333</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L52" t="n">
         <v>260.3</v>
@@ -2931,7 +2953,7 @@
         <v>53</v>
       </c>
       <c r="K53" t="n">
-        <v>7.142857142857142</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L53" t="n">
         <v>261.1</v>
@@ -2982,7 +3004,7 @@
         <v>54</v>
       </c>
       <c r="K54" t="n">
-        <v>10.3448275862069</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L54" t="n">
         <v>262</v>
@@ -3033,7 +3055,7 @@
         <v>55</v>
       </c>
       <c r="K55" t="n">
-        <v>14.28571428571428</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L55" t="n">
         <v>262.8</v>
@@ -3084,7 +3106,7 @@
         <v>56</v>
       </c>
       <c r="K56" t="n">
-        <v>30.76923076923077</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L56" t="n">
         <v>263.7</v>
@@ -3135,7 +3157,7 @@
         <v>56</v>
       </c>
       <c r="K57" t="n">
-        <v>18.18181818181818</v>
+        <v>45.45454545454545</v>
       </c>
       <c r="L57" t="n">
         <v>264.5</v>
@@ -3186,7 +3208,7 @@
         <v>58</v>
       </c>
       <c r="K58" t="n">
-        <v>8.333333333333332</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L58" t="n">
         <v>264.8</v>
@@ -3237,7 +3259,7 @@
         <v>58</v>
       </c>
       <c r="K59" t="n">
-        <v>13.04347826086956</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L59" t="n">
         <v>264.9</v>
@@ -3288,7 +3310,7 @@
         <v>59</v>
       </c>
       <c r="K60" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L60" t="n">
         <v>264.9</v>
@@ -3339,7 +3361,7 @@
         <v>60</v>
       </c>
       <c r="K61" t="n">
-        <v>25</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L61" t="n">
         <v>265.2</v>
@@ -3390,7 +3412,7 @@
         <v>60</v>
       </c>
       <c r="K62" t="n">
-        <v>50</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L62" t="n">
         <v>265.3</v>
@@ -3441,7 +3463,7 @@
         <v>61</v>
       </c>
       <c r="K63" t="n">
-        <v>40</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L63" t="n">
         <v>265.3</v>
@@ -3492,7 +3514,7 @@
         <v>61</v>
       </c>
       <c r="K64" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L64" t="n">
         <v>265.2</v>
@@ -3543,7 +3565,7 @@
         <v>61</v>
       </c>
       <c r="K65" t="n">
-        <v>40</v>
+        <v>-20</v>
       </c>
       <c r="L65" t="n">
         <v>265.2</v>
@@ -3594,7 +3616,7 @@
         <v>62</v>
       </c>
       <c r="K66" t="n">
-        <v>42.85714285714285</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>265.2</v>
@@ -3645,7 +3667,7 @@
         <v>63</v>
       </c>
       <c r="K67" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L67" t="n">
         <v>265.3</v>
@@ -3696,7 +3718,7 @@
         <v>63</v>
       </c>
       <c r="K68" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L68" t="n">
         <v>265.6</v>
@@ -3747,7 +3769,7 @@
         <v>64</v>
       </c>
       <c r="K69" t="n">
-        <v>17.64705882352941</v>
+        <v>20</v>
       </c>
       <c r="L69" t="n">
         <v>265.8</v>
@@ -3798,7 +3820,7 @@
         <v>65</v>
       </c>
       <c r="K70" t="n">
-        <v>12.5</v>
+        <v>20</v>
       </c>
       <c r="L70" t="n">
         <v>266</v>
@@ -3849,7 +3871,7 @@
         <v>67</v>
       </c>
       <c r="K71" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L71" t="n">
         <v>265.9</v>
@@ -4002,7 +4024,7 @@
         <v>67</v>
       </c>
       <c r="K74" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L74" t="n">
         <v>265.8</v>
@@ -4053,7 +4075,7 @@
         <v>67</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L75" t="n">
         <v>265.8</v>
@@ -4104,7 +4126,7 @@
         <v>67</v>
       </c>
       <c r="K76" t="n">
-        <v>-9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L76" t="n">
         <v>265.7</v>
@@ -4155,7 +4177,7 @@
         <v>68</v>
       </c>
       <c r="K77" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L77" t="n">
         <v>265.4</v>
@@ -4206,7 +4228,7 @@
         <v>68</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="L78" t="n">
         <v>265.1</v>
@@ -4257,7 +4279,7 @@
         <v>69</v>
       </c>
       <c r="K79" t="n">
-        <v>9.090909090909092</v>
+        <v>-50</v>
       </c>
       <c r="L79" t="n">
         <v>265</v>
@@ -4308,7 +4330,7 @@
         <v>70</v>
       </c>
       <c r="K80" t="n">
-        <v>9.090909090909092</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L80" t="n">
         <v>264.9</v>
@@ -4359,7 +4381,7 @@
         <v>71</v>
       </c>
       <c r="K81" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L81" t="n">
         <v>264.9</v>
@@ -4410,7 +4432,7 @@
         <v>71</v>
       </c>
       <c r="K82" t="n">
-        <v>-9.090909090909092</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>264.9</v>
@@ -4512,7 +4534,7 @@
         <v>72</v>
       </c>
       <c r="K84" t="n">
-        <v>-9.090909090909092</v>
+        <v>-20</v>
       </c>
       <c r="L84" t="n">
         <v>264.8</v>
@@ -4563,7 +4585,7 @@
         <v>74</v>
       </c>
       <c r="K85" t="n">
-        <v>-23.07692307692308</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L85" t="n">
         <v>264.5</v>
@@ -4665,7 +4687,7 @@
         <v>74</v>
       </c>
       <c r="K87" t="n">
-        <v>-45.45454545454545</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L87" t="n">
         <v>264</v>
@@ -4716,7 +4738,7 @@
         <v>75</v>
       </c>
       <c r="K88" t="n">
-        <v>-50</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L88" t="n">
         <v>263.7</v>
@@ -4767,7 +4789,7 @@
         <v>76</v>
       </c>
       <c r="K89" t="n">
-        <v>-33.33333333333333</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L89" t="n">
         <v>263.4</v>
@@ -4818,7 +4840,7 @@
         <v>76</v>
       </c>
       <c r="K90" t="n">
-        <v>-45.45454545454545</v>
+        <v>-60</v>
       </c>
       <c r="L90" t="n">
         <v>263</v>
@@ -4869,7 +4891,7 @@
         <v>76</v>
       </c>
       <c r="K91" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L91" t="n">
         <v>262.7</v>
@@ -4920,7 +4942,7 @@
         <v>76</v>
       </c>
       <c r="K92" t="n">
-        <v>-33.33333333333333</v>
+        <v>-60</v>
       </c>
       <c r="L92" t="n">
         <v>262.4</v>
@@ -4971,7 +4993,7 @@
         <v>76</v>
       </c>
       <c r="K93" t="n">
-        <v>-33.33333333333333</v>
+        <v>-50</v>
       </c>
       <c r="L93" t="n">
         <v>262.1</v>
@@ -5022,7 +5044,7 @@
         <v>76</v>
       </c>
       <c r="K94" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L94" t="n">
         <v>261.9</v>
@@ -5073,7 +5095,7 @@
         <v>77</v>
       </c>
       <c r="K95" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L95" t="n">
         <v>262</v>
@@ -5124,7 +5146,7 @@
         <v>78</v>
       </c>
       <c r="K96" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L96" t="n">
         <v>262</v>
@@ -5175,7 +5197,7 @@
         <v>78</v>
       </c>
       <c r="K97" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L97" t="n">
         <v>262</v>
@@ -5226,7 +5248,7 @@
         <v>78</v>
       </c>
       <c r="K98" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
         <v>262.1</v>
@@ -5277,7 +5299,7 @@
         <v>79</v>
       </c>
       <c r="K99" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L99" t="n">
         <v>262.2</v>
@@ -5328,7 +5350,7 @@
         <v>79</v>
       </c>
       <c r="K100" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L100" t="n">
         <v>262.3</v>
@@ -5379,7 +5401,7 @@
         <v>80</v>
       </c>
       <c r="K101" t="n">
-        <v>-11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L101" t="n">
         <v>262.5</v>
@@ -5430,7 +5452,7 @@
         <v>82</v>
       </c>
       <c r="K102" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L102" t="n">
         <v>262.5</v>
@@ -5481,7 +5503,7 @@
         <v>83</v>
       </c>
       <c r="K103" t="n">
-        <v>-16.66666666666666</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L103" t="n">
         <v>262.6</v>
@@ -5532,7 +5554,7 @@
         <v>87</v>
       </c>
       <c r="K104" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="L104" t="n">
         <v>263.1</v>
@@ -5583,7 +5605,7 @@
         <v>89</v>
       </c>
       <c r="K105" t="n">
-        <v>46.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L105" t="n">
         <v>263.7</v>
@@ -5634,7 +5656,7 @@
         <v>89</v>
       </c>
       <c r="K106" t="n">
-        <v>46.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L106" t="n">
         <v>264.4</v>
@@ -5685,7 +5707,7 @@
         <v>89</v>
       </c>
       <c r="K107" t="n">
-        <v>46.66666666666666</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L107" t="n">
         <v>265.1</v>
@@ -5736,7 +5758,7 @@
         <v>90</v>
       </c>
       <c r="K108" t="n">
-        <v>60</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L108" t="n">
         <v>265.9</v>
@@ -5787,7 +5809,7 @@
         <v>91</v>
       </c>
       <c r="K109" t="n">
-        <v>46.66666666666666</v>
+        <v>50</v>
       </c>
       <c r="L109" t="n">
         <v>266.5</v>
@@ -5889,7 +5911,7 @@
         <v>93</v>
       </c>
       <c r="K111" t="n">
-        <v>52.94117647058824</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L111" t="n">
         <v>267.9</v>
@@ -5940,7 +5962,7 @@
         <v>94</v>
       </c>
       <c r="K112" t="n">
-        <v>55.55555555555556</v>
+        <v>81.81818181818183</v>
       </c>
       <c r="L112" t="n">
         <v>268.9</v>
@@ -5991,7 +6013,7 @@
         <v>94</v>
       </c>
       <c r="K113" t="n">
-        <v>55.55555555555556</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L113" t="n">
         <v>269.8</v>
@@ -6042,7 +6064,7 @@
         <v>94</v>
       </c>
       <c r="K114" t="n">
-        <v>55.55555555555556</v>
+        <v>60</v>
       </c>
       <c r="L114" t="n">
         <v>270.3</v>
@@ -6093,7 +6115,7 @@
         <v>96</v>
       </c>
       <c r="K115" t="n">
-        <v>36.84210526315789</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L115" t="n">
         <v>270.4</v>
@@ -6144,7 +6166,7 @@
         <v>96</v>
       </c>
       <c r="K116" t="n">
-        <v>44.44444444444444</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L116" t="n">
         <v>270.5</v>
@@ -6195,7 +6217,7 @@
         <v>97</v>
       </c>
       <c r="K117" t="n">
-        <v>36.84210526315789</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L117" t="n">
         <v>270.5</v>
@@ -6246,7 +6268,7 @@
         <v>98</v>
       </c>
       <c r="K118" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L118" t="n">
         <v>270.5</v>
@@ -6297,7 +6319,7 @@
         <v>98</v>
       </c>
       <c r="K119" t="n">
-        <v>36.84210526315789</v>
+        <v>0</v>
       </c>
       <c r="L119" t="n">
         <v>270.6</v>
@@ -6348,7 +6370,7 @@
         <v>99</v>
       </c>
       <c r="K120" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L120" t="n">
         <v>270.7</v>
@@ -6399,7 +6421,7 @@
         <v>100</v>
       </c>
       <c r="K121" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>270.8</v>
@@ -6450,7 +6472,7 @@
         <v>100</v>
       </c>
       <c r="K122" t="n">
-        <v>55.55555555555556</v>
+        <v>0</v>
       </c>
       <c r="L122" t="n">
         <v>270.8</v>
@@ -6501,7 +6523,7 @@
         <v>100</v>
       </c>
       <c r="K123" t="n">
-        <v>52.94117647058824</v>
+        <v>0</v>
       </c>
       <c r="L123" t="n">
         <v>270.8</v>
@@ -6552,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="K124" t="n">
-        <v>38.46153846153847</v>
+        <v>50</v>
       </c>
       <c r="L124" t="n">
         <v>270.8</v>
@@ -6603,7 +6625,7 @@
         <v>101</v>
       </c>
       <c r="K125" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L125" t="n">
         <v>271.1</v>
@@ -6654,7 +6676,7 @@
         <v>102</v>
       </c>
       <c r="K126" t="n">
-        <v>38.46153846153847</v>
+        <v>100</v>
       </c>
       <c r="L126" t="n">
         <v>271.5</v>
@@ -6705,7 +6727,7 @@
         <v>105</v>
       </c>
       <c r="K127" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L127" t="n">
         <v>271.7</v>
@@ -6756,7 +6778,7 @@
         <v>106</v>
       </c>
       <c r="K128" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L128" t="n">
         <v>271.9</v>
@@ -6807,7 +6829,7 @@
         <v>106</v>
       </c>
       <c r="K129" t="n">
-        <v>20</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L129" t="n">
         <v>272.1</v>
@@ -6909,7 +6931,7 @@
         <v>108</v>
       </c>
       <c r="K131" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L131" t="n">
         <v>272.6</v>
@@ -6960,7 +6982,7 @@
         <v>108</v>
       </c>
       <c r="K132" t="n">
-        <v>14.28571428571428</v>
+        <v>25</v>
       </c>
       <c r="L132" t="n">
         <v>272.8</v>
@@ -7062,7 +7084,7 @@
         <v>111</v>
       </c>
       <c r="K134" t="n">
-        <v>5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L134" t="n">
         <v>272.9</v>
@@ -7113,7 +7135,7 @@
         <v>112</v>
       </c>
       <c r="K135" t="n">
-        <v>12.5</v>
+        <v>-20</v>
       </c>
       <c r="L135" t="n">
         <v>272.8</v>
@@ -7164,7 +7186,7 @@
         <v>112</v>
       </c>
       <c r="K136" t="n">
-        <v>12.5</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L136" t="n">
         <v>272.6</v>
@@ -7215,7 +7237,7 @@
         <v>113</v>
       </c>
       <c r="K137" t="n">
-        <v>12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L137" t="n">
         <v>272.6</v>
@@ -7266,7 +7288,7 @@
         <v>113</v>
       </c>
       <c r="K138" t="n">
-        <v>6.666666666666667</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L138" t="n">
         <v>272.5</v>
@@ -7317,7 +7339,7 @@
         <v>115</v>
       </c>
       <c r="K139" t="n">
-        <v>-5.88235294117647</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L139" t="n">
         <v>272.2</v>
@@ -7368,7 +7390,7 @@
         <v>115</v>
       </c>
       <c r="K140" t="n">
-        <v>-12.5</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L140" t="n">
         <v>271.7</v>
@@ -7419,7 +7441,7 @@
         <v>116</v>
       </c>
       <c r="K141" t="n">
-        <v>-25</v>
+        <v>-75</v>
       </c>
       <c r="L141" t="n">
         <v>271.1</v>
@@ -7470,7 +7492,7 @@
         <v>117</v>
       </c>
       <c r="K142" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L142" t="n">
         <v>270.6</v>
@@ -7521,7 +7543,7 @@
         <v>119</v>
       </c>
       <c r="K143" t="n">
-        <v>-26.31578947368421</v>
+        <v>-75</v>
       </c>
       <c r="L143" t="n">
         <v>270.1</v>
@@ -7572,7 +7594,7 @@
         <v>121</v>
       </c>
       <c r="K144" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L144" t="n">
         <v>269.7</v>
@@ -7623,7 +7645,7 @@
         <v>122</v>
       </c>
       <c r="K145" t="n">
-        <v>-14.28571428571428</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>269.5</v>
@@ -7674,7 +7696,7 @@
         <v>123</v>
       </c>
       <c r="K146" t="n">
-        <v>-23.80952380952381</v>
+        <v>-20</v>
       </c>
       <c r="L146" t="n">
         <v>269.2</v>
@@ -7725,7 +7747,7 @@
         <v>124</v>
       </c>
       <c r="K147" t="n">
-        <v>-5.263157894736842</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L147" t="n">
         <v>269.1</v>
@@ -7776,7 +7798,7 @@
         <v>124</v>
       </c>
       <c r="K148" t="n">
-        <v>-11.11111111111111</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L148" t="n">
         <v>269</v>
@@ -7827,7 +7849,7 @@
         <v>126</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L149" t="n">
         <v>269.3</v>
@@ -7878,7 +7900,7 @@
         <v>126</v>
       </c>
       <c r="K150" t="n">
-        <v>-11.11111111111111</v>
+        <v>40</v>
       </c>
       <c r="L150" t="n">
         <v>269.6</v>
@@ -7929,7 +7951,7 @@
         <v>127</v>
       </c>
       <c r="K151" t="n">
-        <v>-15.78947368421053</v>
+        <v>20</v>
       </c>
       <c r="L151" t="n">
         <v>269.9</v>
@@ -7980,7 +8002,7 @@
         <v>128</v>
       </c>
       <c r="K152" t="n">
-        <v>-20</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L152" t="n">
         <v>270</v>
@@ -8031,7 +8053,7 @@
         <v>129</v>
       </c>
       <c r="K153" t="n">
-        <v>-5.263157894736842</v>
+        <v>25</v>
       </c>
       <c r="L153" t="n">
         <v>270.4</v>
@@ -8082,7 +8104,7 @@
         <v>129</v>
       </c>
       <c r="K154" t="n">
-        <v>-11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L154" t="n">
         <v>270.6</v>
@@ -8133,7 +8155,7 @@
         <v>129</v>
       </c>
       <c r="K155" t="n">
-        <v>-5.88235294117647</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L155" t="n">
         <v>270.7</v>
@@ -8184,7 +8206,7 @@
         <v>129</v>
       </c>
       <c r="K156" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L156" t="n">
         <v>270.9</v>
@@ -8235,7 +8257,7 @@
         <v>131</v>
       </c>
       <c r="K157" t="n">
-        <v>11.11111111111111</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L157" t="n">
         <v>271.2</v>
@@ -8286,7 +8308,7 @@
         <v>132</v>
       </c>
       <c r="K158" t="n">
-        <v>15.78947368421053</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L158" t="n">
         <v>271.6</v>
@@ -8337,7 +8359,7 @@
         <v>132</v>
       </c>
       <c r="K159" t="n">
-        <v>29.41176470588236</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L159" t="n">
         <v>271.8</v>
@@ -8388,7 +8410,7 @@
         <v>132</v>
       </c>
       <c r="K160" t="n">
-        <v>29.41176470588236</v>
+        <v>60</v>
       </c>
       <c r="L160" t="n">
         <v>272</v>
@@ -8439,7 +8461,7 @@
         <v>133</v>
       </c>
       <c r="K161" t="n">
-        <v>41.17647058823529</v>
+        <v>100</v>
       </c>
       <c r="L161" t="n">
         <v>272.4</v>
@@ -8490,7 +8512,7 @@
         <v>133</v>
       </c>
       <c r="K162" t="n">
-        <v>37.5</v>
+        <v>100</v>
       </c>
       <c r="L162" t="n">
         <v>272.9</v>
@@ -8541,7 +8563,7 @@
         <v>134</v>
       </c>
       <c r="K163" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L163" t="n">
         <v>273.2</v>
@@ -8592,7 +8614,7 @@
         <v>136</v>
       </c>
       <c r="K164" t="n">
-        <v>46.66666666666666</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L164" t="n">
         <v>273.7</v>
@@ -8643,7 +8665,7 @@
         <v>138</v>
       </c>
       <c r="K165" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L165" t="n">
         <v>274</v>
@@ -8694,7 +8716,7 @@
         <v>139</v>
       </c>
       <c r="K166" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L166" t="n">
         <v>274.4</v>
@@ -8745,7 +8767,7 @@
         <v>140</v>
       </c>
       <c r="K167" t="n">
-        <v>37.5</v>
+        <v>25</v>
       </c>
       <c r="L167" t="n">
         <v>274.7</v>
@@ -8796,7 +8818,7 @@
         <v>141</v>
       </c>
       <c r="K168" t="n">
-        <v>41.17647058823529</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L168" t="n">
         <v>275</v>
@@ -8847,7 +8869,7 @@
         <v>142</v>
       </c>
       <c r="K169" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L169" t="n">
         <v>275.2</v>
@@ -8898,7 +8920,7 @@
         <v>143</v>
       </c>
       <c r="K170" t="n">
-        <v>29.41176470588236</v>
+        <v>20</v>
       </c>
       <c r="L170" t="n">
         <v>275.5</v>
@@ -8949,7 +8971,7 @@
         <v>143</v>
       </c>
       <c r="K171" t="n">
-        <v>37.5</v>
+        <v>20</v>
       </c>
       <c r="L171" t="n">
         <v>275.7</v>
@@ -9000,7 +9022,7 @@
         <v>143</v>
       </c>
       <c r="K172" t="n">
-        <v>46.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L172" t="n">
         <v>275.9</v>
@@ -9051,7 +9073,7 @@
         <v>144</v>
       </c>
       <c r="K173" t="n">
-        <v>46.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L173" t="n">
         <v>276.3</v>
@@ -9102,7 +9124,7 @@
         <v>145</v>
       </c>
       <c r="K174" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L174" t="n">
         <v>276.6</v>
@@ -9153,7 +9175,7 @@
         <v>146</v>
       </c>
       <c r="K175" t="n">
-        <v>52.94117647058824</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L175" t="n">
         <v>277.2</v>
@@ -9204,7 +9226,7 @@
         <v>146</v>
       </c>
       <c r="K176" t="n">
-        <v>52.94117647058824</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L176" t="n">
         <v>277.7</v>
@@ -9255,7 +9277,7 @@
         <v>146</v>
       </c>
       <c r="K177" t="n">
-        <v>46.66666666666666</v>
+        <v>60</v>
       </c>
       <c r="L177" t="n">
         <v>278.1</v>
@@ -9306,7 +9328,7 @@
         <v>147</v>
       </c>
       <c r="K178" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L178" t="n">
         <v>278.3</v>
@@ -9357,7 +9379,7 @@
         <v>148</v>
       </c>
       <c r="K179" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L179" t="n">
         <v>278.7</v>
@@ -9408,7 +9430,7 @@
         <v>148</v>
       </c>
       <c r="K180" t="n">
-        <v>37.5</v>
+        <v>60</v>
       </c>
       <c r="L180" t="n">
         <v>279</v>
@@ -9459,7 +9481,7 @@
         <v>148</v>
       </c>
       <c r="K181" t="n">
-        <v>33.33333333333333</v>
+        <v>60</v>
       </c>
       <c r="L181" t="n">
         <v>279.3</v>
@@ -9510,7 +9532,7 @@
         <v>150</v>
       </c>
       <c r="K182" t="n">
-        <v>17.64705882352941</v>
+        <v>0</v>
       </c>
       <c r="L182" t="n">
         <v>279.4</v>
@@ -9561,7 +9583,7 @@
         <v>152</v>
       </c>
       <c r="K183" t="n">
-        <v>33.33333333333333</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L183" t="n">
         <v>279.6</v>
@@ -9612,7 +9634,7 @@
         <v>152</v>
       </c>
       <c r="K184" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L184" t="n">
         <v>279.7</v>
@@ -9663,7 +9685,7 @@
         <v>153</v>
       </c>
       <c r="K185" t="n">
-        <v>33.33333333333333</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L185" t="n">
         <v>279.6</v>
@@ -9714,7 +9736,7 @@
         <v>155</v>
       </c>
       <c r="K186" t="n">
-        <v>37.5</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L186" t="n">
         <v>279.7</v>
@@ -9765,7 +9787,7 @@
         <v>156</v>
       </c>
       <c r="K187" t="n">
-        <v>37.5</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L187" t="n">
         <v>279.9</v>
@@ -9816,7 +9838,7 @@
         <v>156</v>
       </c>
       <c r="K188" t="n">
-        <v>33.33333333333333</v>
+        <v>25</v>
       </c>
       <c r="L188" t="n">
         <v>280.2</v>
@@ -9867,7 +9889,7 @@
         <v>158</v>
       </c>
       <c r="K189" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L189" t="n">
         <v>280.2</v>
@@ -9918,7 +9940,7 @@
         <v>161</v>
       </c>
       <c r="K190" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L190" t="n">
         <v>280.5</v>
@@ -9969,7 +9991,7 @@
         <v>168</v>
       </c>
       <c r="K191" t="n">
-        <v>-4</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L191" t="n">
         <v>280.1</v>
@@ -10020,7 +10042,7 @@
         <v>174</v>
       </c>
       <c r="K192" t="n">
-        <v>16.12903225806452</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L192" t="n">
         <v>280.5</v>
@@ -10071,7 +10093,7 @@
         <v>179</v>
       </c>
       <c r="K193" t="n">
-        <v>-2.857142857142857</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L193" t="n">
         <v>280.2</v>
@@ -10173,7 +10195,7 @@
         <v>182</v>
       </c>
       <c r="K195" t="n">
-        <v>-5.555555555555555</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L195" t="n">
         <v>280</v>
@@ -10224,7 +10246,7 @@
         <v>183</v>
       </c>
       <c r="K196" t="n">
-        <v>-8.108108108108109</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L196" t="n">
         <v>279.6</v>
@@ -10275,7 +10297,7 @@
         <v>185</v>
       </c>
       <c r="K197" t="n">
-        <v>-12.82051282051282</v>
+        <v>-24.13793103448276</v>
       </c>
       <c r="L197" t="n">
         <v>278.9</v>
@@ -10326,7 +10348,7 @@
         <v>185</v>
       </c>
       <c r="K198" t="n">
-        <v>-10.52631578947368</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L198" t="n">
         <v>278.2</v>
@@ -10377,7 +10399,7 @@
         <v>187</v>
       </c>
       <c r="K199" t="n">
-        <v>-17.94871794871795</v>
+        <v>-38.46153846153847</v>
       </c>
       <c r="L199" t="n">
         <v>277.5</v>
@@ -10428,7 +10450,7 @@
         <v>188</v>
       </c>
       <c r="K200" t="n">
-        <v>-15</v>
+        <v>-10</v>
       </c>
       <c r="L200" t="n">
         <v>276.6</v>
@@ -10479,7 +10501,7 @@
         <v>188</v>
       </c>
       <c r="K201" t="n">
-        <v>-15</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L201" t="n">
         <v>276.4</v>
@@ -10530,7 +10552,7 @@
         <v>189</v>
       </c>
       <c r="K202" t="n">
-        <v>-7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L202" t="n">
         <v>275.7</v>
@@ -10581,7 +10603,7 @@
         <v>189</v>
       </c>
       <c r="K203" t="n">
-        <v>-13.51351351351351</v>
+        <v>-50</v>
       </c>
       <c r="L203" t="n">
         <v>275.5</v>
@@ -10632,7 +10654,7 @@
         <v>191</v>
       </c>
       <c r="K204" t="n">
-        <v>-17.94871794871795</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L204" t="n">
         <v>274.9</v>
@@ -10683,7 +10705,7 @@
         <v>192</v>
       </c>
       <c r="K205" t="n">
-        <v>-12.82051282051282</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L205" t="n">
         <v>274.5</v>
@@ -10734,7 +10756,7 @@
         <v>192</v>
       </c>
       <c r="K206" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L206" t="n">
         <v>274.2</v>
@@ -10785,7 +10807,7 @@
         <v>192</v>
       </c>
       <c r="K207" t="n">
-        <v>-22.22222222222222</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L207" t="n">
         <v>274.1</v>
@@ -10836,7 +10858,7 @@
         <v>194</v>
       </c>
       <c r="K208" t="n">
-        <v>-26.31578947368421</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L208" t="n">
         <v>273.8</v>
@@ -10887,7 +10909,7 @@
         <v>195</v>
       </c>
       <c r="K209" t="n">
-        <v>-18.91891891891892</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L209" t="n">
         <v>273.8</v>
@@ -10938,7 +10960,7 @@
         <v>196</v>
       </c>
       <c r="K210" t="n">
-        <v>-25.71428571428571</v>
+        <v>0</v>
       </c>
       <c r="L210" t="n">
         <v>273.8</v>
@@ -10989,7 +11011,7 @@
         <v>197</v>
       </c>
       <c r="K211" t="n">
-        <v>-10.3448275862069</v>
+        <v>-25</v>
       </c>
       <c r="L211" t="n">
         <v>273.7</v>
@@ -11040,7 +11062,7 @@
         <v>200</v>
       </c>
       <c r="K212" t="n">
-        <v>-23.07692307692308</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L212" t="n">
         <v>273.8</v>
@@ -11091,7 +11113,7 @@
         <v>200</v>
       </c>
       <c r="K213" t="n">
-        <v>-4.761904761904762</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L213" t="n">
         <v>273.9</v>
@@ -11142,7 +11164,7 @@
         <v>200</v>
       </c>
       <c r="K214" t="n">
-        <v>-15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L214" t="n">
         <v>274.2</v>
@@ -11193,7 +11215,7 @@
         <v>204</v>
       </c>
       <c r="K215" t="n">
-        <v>-27.27272727272727</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L215" t="n">
         <v>274</v>
@@ -11244,7 +11266,7 @@
         <v>206</v>
       </c>
       <c r="K216" t="n">
-        <v>-30.43478260869566</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L216" t="n">
         <v>273.6</v>
@@ -11295,7 +11317,7 @@
         <v>208</v>
       </c>
       <c r="K217" t="n">
-        <v>-13.04347826086956</v>
+        <v>0</v>
       </c>
       <c r="L217" t="n">
         <v>273.4</v>
@@ -11346,7 +11368,7 @@
         <v>208</v>
       </c>
       <c r="K218" t="n">
-        <v>-13.04347826086956</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L218" t="n">
         <v>273.4</v>
@@ -11397,7 +11419,7 @@
         <v>208</v>
       </c>
       <c r="K219" t="n">
-        <v>-4.761904761904762</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L219" t="n">
         <v>273.3</v>
@@ -11448,7 +11470,7 @@
         <v>208</v>
       </c>
       <c r="K220" t="n">
-        <v>-10</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L220" t="n">
         <v>273.1</v>
@@ -11499,7 +11521,7 @@
         <v>208</v>
       </c>
       <c r="K221" t="n">
-        <v>-10</v>
+        <v>-50</v>
       </c>
       <c r="L221" t="n">
         <v>273</v>
@@ -11550,7 +11572,7 @@
         <v>209</v>
       </c>
       <c r="K222" t="n">
-        <v>-10</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L222" t="n">
         <v>272.7</v>
@@ -11601,7 +11623,7 @@
         <v>210</v>
       </c>
       <c r="K223" t="n">
-        <v>-14.28571428571428</v>
+        <v>-40</v>
       </c>
       <c r="L223" t="n">
         <v>272.3</v>
@@ -11652,7 +11674,7 @@
         <v>211</v>
       </c>
       <c r="K224" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L224" t="n">
         <v>272</v>
@@ -11703,7 +11725,7 @@
         <v>214</v>
       </c>
       <c r="K225" t="n">
-        <v>-18.18181818181818</v>
+        <v>0</v>
       </c>
       <c r="L225" t="n">
         <v>271.8</v>
@@ -11754,7 +11776,7 @@
         <v>214</v>
       </c>
       <c r="K226" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L226" t="n">
         <v>271.8</v>
@@ -11805,7 +11827,7 @@
         <v>214</v>
       </c>
       <c r="K227" t="n">
-        <v>-18.18181818181818</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L227" t="n">
         <v>271.6</v>
@@ -11907,7 +11929,7 @@
         <v>216</v>
       </c>
       <c r="K229" t="n">
-        <v>-4.761904761904762</v>
+        <v>0</v>
       </c>
       <c r="L229" t="n">
         <v>271.6</v>
@@ -11958,7 +11980,7 @@
         <v>217</v>
       </c>
       <c r="K230" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L230" t="n">
         <v>271.7</v>
@@ -12060,7 +12082,7 @@
         <v>218</v>
       </c>
       <c r="K232" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L232" t="n">
         <v>271.9</v>
@@ -12111,7 +12133,7 @@
         <v>220</v>
       </c>
       <c r="K233" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>272.3</v>
@@ -12162,7 +12184,7 @@
         <v>221</v>
       </c>
       <c r="K234" t="n">
-        <v>-4.761904761904762</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L234" t="n">
         <v>272.5</v>
@@ -12213,7 +12235,7 @@
         <v>222</v>
       </c>
       <c r="K235" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L235" t="n">
         <v>272.9</v>
@@ -12264,7 +12286,7 @@
         <v>225</v>
       </c>
       <c r="K236" t="n">
-        <v>5.263157894736842</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L236" t="n">
         <v>273</v>
@@ -12417,7 +12439,7 @@
         <v>227</v>
       </c>
       <c r="K239" t="n">
-        <v>-5.263157894736842</v>
+        <v>-20</v>
       </c>
       <c r="L239" t="n">
         <v>273.1</v>
@@ -12468,7 +12490,7 @@
         <v>228</v>
       </c>
       <c r="K240" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L240" t="n">
         <v>273</v>
@@ -12519,7 +12541,7 @@
         <v>228</v>
       </c>
       <c r="K241" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L241" t="n">
         <v>272.9</v>
@@ -12570,7 +12592,7 @@
         <v>228</v>
       </c>
       <c r="K242" t="n">
-        <v>-5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L242" t="n">
         <v>272.7</v>
@@ -12621,7 +12643,7 @@
         <v>229</v>
       </c>
       <c r="K243" t="n">
-        <v>-5.263157894736842</v>
+        <v>-50</v>
       </c>
       <c r="L243" t="n">
         <v>272.2</v>
@@ -12672,7 +12694,7 @@
         <v>231</v>
       </c>
       <c r="K244" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L244" t="n">
         <v>272</v>
@@ -12723,7 +12745,7 @@
         <v>233</v>
       </c>
       <c r="K245" t="n">
-        <v>5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L245" t="n">
         <v>271.7</v>
@@ -12774,7 +12796,7 @@
         <v>233</v>
       </c>
       <c r="K246" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L246" t="n">
         <v>271.7</v>
@@ -12825,7 +12847,7 @@
         <v>233</v>
       </c>
       <c r="K247" t="n">
-        <v>5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L247" t="n">
         <v>271.6</v>
@@ -12876,7 +12898,7 @@
         <v>233</v>
       </c>
       <c r="K248" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L248" t="n">
         <v>271.5</v>
@@ -12927,7 +12949,7 @@
         <v>235</v>
       </c>
       <c r="K249" t="n">
-        <v>-15.78947368421053</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L249" t="n">
         <v>271.3</v>
@@ -12978,7 +13000,7 @@
         <v>235</v>
       </c>
       <c r="K250" t="n">
-        <v>-22.22222222222222</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L250" t="n">
         <v>271</v>
@@ -13029,7 +13051,7 @@
         <v>236</v>
       </c>
       <c r="K251" t="n">
-        <v>-26.31578947368421</v>
+        <v>-50</v>
       </c>
       <c r="L251" t="n">
         <v>270.6</v>
@@ -13080,7 +13102,7 @@
         <v>236</v>
       </c>
       <c r="K252" t="n">
-        <v>-33.33333333333333</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L252" t="n">
         <v>270.2</v>
@@ -13131,7 +13153,7 @@
         <v>237</v>
       </c>
       <c r="K253" t="n">
-        <v>-52.94117647058824</v>
+        <v>-100</v>
       </c>
       <c r="L253" t="n">
         <v>269.8</v>
@@ -13182,7 +13204,7 @@
         <v>237</v>
       </c>
       <c r="K254" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L254" t="n">
         <v>269.2</v>
@@ -13233,7 +13255,7 @@
         <v>237</v>
       </c>
       <c r="K255" t="n">
-        <v>-46.66666666666666</v>
+        <v>-100</v>
       </c>
       <c r="L255" t="n">
         <v>268.8</v>
@@ -13284,7 +13306,7 @@
         <v>238</v>
       </c>
       <c r="K256" t="n">
-        <v>-38.46153846153847</v>
+        <v>-100</v>
       </c>
       <c r="L256" t="n">
         <v>268.3</v>
@@ -13335,7 +13357,7 @@
         <v>239</v>
       </c>
       <c r="K257" t="n">
-        <v>-38.46153846153847</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L257" t="n">
         <v>267.9</v>
@@ -13386,7 +13408,7 @@
         <v>240</v>
       </c>
       <c r="K258" t="n">
-        <v>-28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L258" t="n">
         <v>267.6</v>
@@ -13437,7 +13459,7 @@
         <v>240</v>
       </c>
       <c r="K259" t="n">
-        <v>-23.07692307692308</v>
+        <v>-20</v>
       </c>
       <c r="L259" t="n">
         <v>267.5</v>
@@ -13488,7 +13510,7 @@
         <v>243</v>
       </c>
       <c r="K260" t="n">
-        <v>-6.666666666666667</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L260" t="n">
         <v>267.7</v>
@@ -13539,7 +13561,7 @@
         <v>246</v>
       </c>
       <c r="K261" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L261" t="n">
         <v>267.7</v>
@@ -13590,7 +13612,7 @@
         <v>247</v>
       </c>
       <c r="K262" t="n">
-        <v>-26.31578947368421</v>
+        <v>0</v>
       </c>
       <c r="L262" t="n">
         <v>267.6</v>
@@ -13641,7 +13663,7 @@
         <v>247</v>
       </c>
       <c r="K263" t="n">
-        <v>-22.22222222222222</v>
+        <v>0</v>
       </c>
       <c r="L263" t="n">
         <v>267.6</v>
@@ -13692,7 +13714,7 @@
         <v>248</v>
       </c>
       <c r="K264" t="n">
-        <v>-29.41176470588236</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L264" t="n">
         <v>267.7</v>
@@ -13743,7 +13765,7 @@
         <v>248</v>
       </c>
       <c r="K265" t="n">
-        <v>-20</v>
+        <v>20</v>
       </c>
       <c r="L265" t="n">
         <v>267.8</v>
@@ -13794,7 +13816,7 @@
         <v>248</v>
       </c>
       <c r="K266" t="n">
-        <v>-20</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L266" t="n">
         <v>268</v>
@@ -13845,7 +13867,7 @@
         <v>250</v>
       </c>
       <c r="K267" t="n">
-        <v>-5.88235294117647</v>
+        <v>20</v>
       </c>
       <c r="L267" t="n">
         <v>268.3</v>
@@ -13896,7 +13918,7 @@
         <v>252</v>
       </c>
       <c r="K268" t="n">
-        <v>5.263157894736842</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L268" t="n">
         <v>268.7</v>
@@ -13947,7 +13969,7 @@
         <v>253</v>
       </c>
       <c r="K269" t="n">
-        <v>22.22222222222222</v>
+        <v>20</v>
       </c>
       <c r="L269" t="n">
         <v>269.2</v>
@@ -13998,7 +14020,7 @@
         <v>253</v>
       </c>
       <c r="K270" t="n">
-        <v>22.22222222222222</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L270" t="n">
         <v>269.4</v>
@@ -14049,7 +14071,7 @@
         <v>253</v>
       </c>
       <c r="K271" t="n">
-        <v>29.41176470588236</v>
+        <v>100</v>
       </c>
       <c r="L271" t="n">
         <v>269.9</v>
@@ -14100,7 +14122,7 @@
         <v>255</v>
       </c>
       <c r="K272" t="n">
-        <v>15.78947368421053</v>
+        <v>50</v>
       </c>
       <c r="L272" t="n">
         <v>270.3</v>
@@ -14151,7 +14173,7 @@
         <v>255</v>
       </c>
       <c r="K273" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L273" t="n">
         <v>270.7</v>
@@ -14202,7 +14224,7 @@
         <v>255</v>
       </c>
       <c r="K274" t="n">
-        <v>22.22222222222222</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L274" t="n">
         <v>271</v>
@@ -14253,7 +14275,7 @@
         <v>256</v>
       </c>
       <c r="K275" t="n">
-        <v>15.78947368421053</v>
+        <v>25</v>
       </c>
       <c r="L275" t="n">
         <v>271.2</v>
@@ -14304,7 +14326,7 @@
         <v>261</v>
       </c>
       <c r="K276" t="n">
-        <v>-4.347826086956522</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L276" t="n">
         <v>270.9</v>
@@ -14355,7 +14377,7 @@
         <v>262</v>
       </c>
       <c r="K277" t="n">
-        <v>-4.347826086956522</v>
+        <v>-60</v>
       </c>
       <c r="L277" t="n">
         <v>270.5</v>
@@ -14406,7 +14428,7 @@
         <v>262</v>
       </c>
       <c r="K278" t="n">
-        <v>-9.090909090909092</v>
+        <v>-77.77777777777779</v>
       </c>
       <c r="L278" t="n">
         <v>269.9</v>
@@ -14457,7 +14479,7 @@
         <v>263</v>
       </c>
       <c r="K279" t="n">
-        <v>-13.04347826086956</v>
+        <v>-80</v>
       </c>
       <c r="L279" t="n">
         <v>269.1</v>
@@ -14508,7 +14530,7 @@
         <v>263</v>
       </c>
       <c r="K280" t="n">
-        <v>-30</v>
+        <v>-80</v>
       </c>
       <c r="L280" t="n">
         <v>268.3</v>
@@ -14559,7 +14581,7 @@
         <v>267</v>
       </c>
       <c r="K281" t="n">
-        <v>-33.33333333333333</v>
+        <v>-83.33333333333334</v>
       </c>
       <c r="L281" t="n">
         <v>267.1</v>
@@ -14610,7 +14632,7 @@
         <v>268</v>
       </c>
       <c r="K282" t="n">
-        <v>-33.33333333333333</v>
+        <v>-84.61538461538461</v>
       </c>
       <c r="L282" t="n">
         <v>266</v>
@@ -14661,7 +14683,7 @@
         <v>269</v>
       </c>
       <c r="K283" t="n">
-        <v>-27.27272727272727</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L283" t="n">
         <v>265</v>
@@ -14712,7 +14734,7 @@
         <v>270</v>
       </c>
       <c r="K284" t="n">
-        <v>-36.36363636363637</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L284" t="n">
         <v>263.9</v>
@@ -14763,7 +14785,7 @@
         <v>271</v>
       </c>
       <c r="K285" t="n">
-        <v>-30.43478260869566</v>
+        <v>-40</v>
       </c>
       <c r="L285" t="n">
         <v>263</v>
@@ -14814,7 +14836,7 @@
         <v>272</v>
       </c>
       <c r="K286" t="n">
-        <v>-25</v>
+        <v>-40</v>
       </c>
       <c r="L286" t="n">
         <v>262.7</v>
@@ -14865,7 +14887,7 @@
         <v>274</v>
       </c>
       <c r="K287" t="n">
-        <v>-41.66666666666667</v>
+        <v>-50</v>
       </c>
       <c r="L287" t="n">
         <v>262.1</v>
@@ -14916,7 +14938,7 @@
         <v>274</v>
       </c>
       <c r="K288" t="n">
-        <v>-54.54545454545454</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L288" t="n">
         <v>261.5</v>
@@ -14967,7 +14989,7 @@
         <v>274</v>
       </c>
       <c r="K289" t="n">
-        <v>-61.90476190476191</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L289" t="n">
         <v>261</v>
@@ -15018,7 +15040,7 @@
         <v>275</v>
       </c>
       <c r="K290" t="n">
-        <v>-54.54545454545454</v>
+        <v>0</v>
       </c>
       <c r="L290" t="n">
         <v>260.6</v>
@@ -15069,7 +15091,7 @@
         <v>276</v>
       </c>
       <c r="K291" t="n">
-        <v>-56.52173913043478</v>
+        <v>0</v>
       </c>
       <c r="L291" t="n">
         <v>260.5</v>
@@ -15120,7 +15142,7 @@
         <v>276</v>
       </c>
       <c r="K292" t="n">
-        <v>-52.38095238095239</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L292" t="n">
         <v>260.5</v>
@@ -15171,7 +15193,7 @@
         <v>276</v>
       </c>
       <c r="K293" t="n">
-        <v>-52.38095238095239</v>
+        <v>0</v>
       </c>
       <c r="L293" t="n">
         <v>260.4</v>
@@ -15222,7 +15244,7 @@
         <v>276</v>
       </c>
       <c r="K294" t="n">
-        <v>-52.38095238095239</v>
+        <v>-20</v>
       </c>
       <c r="L294" t="n">
         <v>260.4</v>
@@ -15324,7 +15346,7 @@
         <v>276</v>
       </c>
       <c r="K296" t="n">
-        <v>-33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L296" t="n">
         <v>260.1</v>
@@ -15375,7 +15397,7 @@
         <v>277</v>
       </c>
       <c r="K297" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L297" t="n">
         <v>260.2</v>
@@ -15426,7 +15448,7 @@
         <v>277</v>
       </c>
       <c r="K298" t="n">
-        <v>-33.33333333333333</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L298" t="n">
         <v>260.3</v>
@@ -15477,7 +15499,7 @@
         <v>277</v>
       </c>
       <c r="K299" t="n">
-        <v>-28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L299" t="n">
         <v>260.4</v>
@@ -15528,7 +15550,7 @@
         <v>278</v>
       </c>
       <c r="K300" t="n">
-        <v>-20</v>
+        <v>100</v>
       </c>
       <c r="L300" t="n">
         <v>260.5</v>
@@ -15579,7 +15601,7 @@
         <v>278</v>
       </c>
       <c r="K301" t="n">
-        <v>9.090909090909092</v>
+        <v>100</v>
       </c>
       <c r="L301" t="n">
         <v>260.7</v>
@@ -15630,7 +15652,7 @@
         <v>278</v>
       </c>
       <c r="K302" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L302" t="n">
         <v>260.9</v>
@@ -15681,7 +15703,7 @@
         <v>279</v>
       </c>
       <c r="K303" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L303" t="n">
         <v>261.2</v>
@@ -15732,7 +15754,7 @@
         <v>279</v>
       </c>
       <c r="K304" t="n">
-        <v>33.33333333333333</v>
+        <v>100</v>
       </c>
       <c r="L304" t="n">
         <v>261.5</v>
@@ -15783,7 +15805,7 @@
         <v>279</v>
       </c>
       <c r="K305" t="n">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="L305" t="n">
         <v>261.8</v>
@@ -15834,7 +15856,7 @@
         <v>280</v>
       </c>
       <c r="K306" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L306" t="n">
         <v>262</v>
@@ -15885,7 +15907,7 @@
         <v>281</v>
       </c>
       <c r="K307" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L307" t="n">
         <v>262.2</v>
@@ -15936,7 +15958,7 @@
         <v>282</v>
       </c>
       <c r="K308" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L308" t="n">
         <v>262.3</v>
@@ -15987,7 +16009,7 @@
         <v>283</v>
       </c>
       <c r="K309" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L309" t="n">
         <v>262.5</v>
@@ -16038,7 +16060,7 @@
         <v>283</v>
       </c>
       <c r="K310" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="L310" t="n">
         <v>262.6</v>
@@ -16089,7 +16111,7 @@
         <v>285</v>
       </c>
       <c r="K311" t="n">
-        <v>55.55555555555556</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L311" t="n">
         <v>262.9</v>
@@ -16140,7 +16162,7 @@
         <v>286</v>
       </c>
       <c r="K312" t="n">
-        <v>40</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L312" t="n">
         <v>263.1</v>
@@ -16191,7 +16213,7 @@
         <v>287</v>
       </c>
       <c r="K313" t="n">
-        <v>45.45454545454545</v>
+        <v>25</v>
       </c>
       <c r="L313" t="n">
         <v>263.3</v>
@@ -16242,7 +16264,7 @@
         <v>287</v>
       </c>
       <c r="K314" t="n">
-        <v>45.45454545454545</v>
+        <v>25</v>
       </c>
       <c r="L314" t="n">
         <v>263.5</v>
@@ -16293,7 +16315,7 @@
         <v>289</v>
       </c>
       <c r="K315" t="n">
-        <v>53.84615384615385</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L315" t="n">
         <v>263.9</v>
@@ -16344,7 +16366,7 @@
         <v>289</v>
       </c>
       <c r="K316" t="n">
-        <v>53.84615384615385</v>
+        <v>50</v>
       </c>
       <c r="L316" t="n">
         <v>264.4</v>
@@ -16395,7 +16417,7 @@
         <v>289</v>
       </c>
       <c r="K317" t="n">
-        <v>50</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L317" t="n">
         <v>264.8</v>
@@ -16446,7 +16468,7 @@
         <v>290</v>
       </c>
       <c r="K318" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L318" t="n">
         <v>265.4</v>
@@ -16497,7 +16519,7 @@
         <v>290</v>
       </c>
       <c r="K319" t="n">
-        <v>53.84615384615385</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L319" t="n">
         <v>265.9</v>
@@ -16548,7 +16570,7 @@
         <v>291</v>
       </c>
       <c r="K320" t="n">
-        <v>53.84615384615385</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L320" t="n">
         <v>266.5</v>
@@ -16599,7 +16621,7 @@
         <v>292</v>
       </c>
       <c r="K321" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L321" t="n">
         <v>267</v>
@@ -16650,7 +16672,7 @@
         <v>292</v>
       </c>
       <c r="K322" t="n">
-        <v>57.14285714285714</v>
+        <v>100</v>
       </c>
       <c r="L322" t="n">
         <v>267.6</v>
@@ -16701,7 +16723,7 @@
         <v>294</v>
       </c>
       <c r="K323" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L323" t="n">
         <v>267.9</v>
@@ -16752,7 +16774,7 @@
         <v>297</v>
       </c>
       <c r="K324" t="n">
-        <v>11.11111111111111</v>
+        <v>-25</v>
       </c>
       <c r="L324" t="n">
         <v>267.9</v>
@@ -16803,7 +16825,7 @@
         <v>298</v>
       </c>
       <c r="K325" t="n">
-        <v>15.78947368421053</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L325" t="n">
         <v>267.8</v>
@@ -16854,7 +16876,7 @@
         <v>299</v>
       </c>
       <c r="K326" t="n">
-        <v>15.78947368421053</v>
+        <v>-20</v>
       </c>
       <c r="L326" t="n">
         <v>267.6</v>
@@ -16905,7 +16927,7 @@
         <v>299</v>
       </c>
       <c r="K327" t="n">
-        <v>11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L327" t="n">
         <v>267.4</v>
@@ -16956,7 +16978,7 @@
         <v>301</v>
       </c>
       <c r="K328" t="n">
-        <v>5.263157894736842</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L328" t="n">
         <v>266.9</v>
@@ -17007,7 +17029,7 @@
         <v>302</v>
       </c>
       <c r="K329" t="n">
-        <v>5.263157894736842</v>
+        <v>-45.45454545454545</v>
       </c>
       <c r="L329" t="n">
         <v>266.5</v>
@@ -17058,7 +17080,7 @@
         <v>302</v>
       </c>
       <c r="K330" t="n">
-        <v>5.263157894736842</v>
+        <v>-60</v>
       </c>
       <c r="L330" t="n">
         <v>266</v>
@@ -17109,7 +17131,7 @@
         <v>302</v>
       </c>
       <c r="K331" t="n">
-        <v>-5.88235294117647</v>
+        <v>-60</v>
       </c>
       <c r="L331" t="n">
         <v>265.4</v>
@@ -17160,7 +17182,7 @@
         <v>303</v>
       </c>
       <c r="K332" t="n">
-        <v>-5.88235294117647</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L332" t="n">
         <v>264.7</v>
@@ -17211,7 +17233,7 @@
         <v>304</v>
       </c>
       <c r="K333" t="n">
-        <v>-17.64705882352941</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L333" t="n">
         <v>264.1</v>
@@ -17262,7 +17284,7 @@
         <v>307</v>
       </c>
       <c r="K334" t="n">
-        <v>0</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L334" t="n">
         <v>264.1</v>
@@ -17313,7 +17335,7 @@
         <v>307</v>
       </c>
       <c r="K335" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L335" t="n">
         <v>264</v>
@@ -17364,7 +17386,7 @@
         <v>307</v>
       </c>
       <c r="K336" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L336" t="n">
         <v>264</v>
@@ -17415,7 +17437,7 @@
         <v>308</v>
       </c>
       <c r="K337" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L337" t="n">
         <v>264.1</v>
@@ -17466,7 +17488,7 @@
         <v>308</v>
       </c>
       <c r="K338" t="n">
-        <v>-11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L338" t="n">
         <v>264.4</v>
@@ -17517,7 +17539,7 @@
         <v>309</v>
       </c>
       <c r="K339" t="n">
-        <v>-5.263157894736842</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L339" t="n">
         <v>264.7</v>
@@ -17568,7 +17590,7 @@
         <v>311</v>
       </c>
       <c r="K340" t="n">
-        <v>0</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L340" t="n">
         <v>265.2</v>
@@ -17619,7 +17641,7 @@
         <v>311</v>
       </c>
       <c r="K341" t="n">
-        <v>-5.263157894736842</v>
+        <v>75</v>
       </c>
       <c r="L341" t="n">
         <v>265.7</v>
@@ -17670,7 +17692,7 @@
         <v>313</v>
       </c>
       <c r="K342" t="n">
-        <v>4.761904761904762</v>
+        <v>100</v>
       </c>
       <c r="L342" t="n">
         <v>266.5</v>
@@ -17721,7 +17743,7 @@
         <v>313</v>
       </c>
       <c r="K343" t="n">
-        <v>15.78947368421053</v>
+        <v>100</v>
       </c>
       <c r="L343" t="n">
         <v>267.4</v>
@@ -17772,7 +17794,7 @@
         <v>315</v>
       </c>
       <c r="K344" t="n">
-        <v>22.22222222222222</v>
+        <v>50</v>
       </c>
       <c r="L344" t="n">
         <v>267.8</v>
@@ -17823,7 +17845,7 @@
         <v>315</v>
       </c>
       <c r="K345" t="n">
-        <v>17.64705882352941</v>
+        <v>50</v>
       </c>
       <c r="L345" t="n">
         <v>268.2</v>
@@ -17874,7 +17896,7 @@
         <v>315</v>
       </c>
       <c r="K346" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L346" t="n">
         <v>268.6</v>
@@ -17925,7 +17947,7 @@
         <v>315</v>
       </c>
       <c r="K347" t="n">
-        <v>25</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L347" t="n">
         <v>268.9</v>
@@ -17976,7 +17998,7 @@
         <v>315</v>
       </c>
       <c r="K348" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L348" t="n">
         <v>269.2</v>
@@ -18027,7 +18049,7 @@
         <v>316</v>
       </c>
       <c r="K349" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L349" t="n">
         <v>269.3</v>
@@ -18078,7 +18100,7 @@
         <v>316</v>
       </c>
       <c r="K350" t="n">
-        <v>28.57142857142857</v>
+        <v>-20</v>
       </c>
       <c r="L350" t="n">
         <v>269.2</v>
@@ -18129,7 +18151,7 @@
         <v>317</v>
       </c>
       <c r="K351" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L351" t="n">
         <v>269</v>
@@ -18180,7 +18202,7 @@
         <v>317</v>
       </c>
       <c r="K352" t="n">
-        <v>28.57142857142857</v>
+        <v>-100</v>
       </c>
       <c r="L352" t="n">
         <v>268.6</v>
@@ -18231,7 +18253,7 @@
         <v>319</v>
       </c>
       <c r="K353" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L353" t="n">
         <v>268</v>
@@ -18282,7 +18304,7 @@
         <v>319</v>
       </c>
       <c r="K354" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L354" t="n">
         <v>267.6</v>
@@ -18333,7 +18355,7 @@
         <v>320</v>
       </c>
       <c r="K355" t="n">
-        <v>7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L355" t="n">
         <v>267.3</v>
@@ -18384,7 +18406,7 @@
         <v>320</v>
       </c>
       <c r="K356" t="n">
-        <v>7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L356" t="n">
         <v>267</v>
@@ -18435,7 +18457,7 @@
         <v>321</v>
       </c>
       <c r="K357" t="n">
-        <v>-7.692307692307693</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L357" t="n">
         <v>266.6</v>
@@ -18486,7 +18508,7 @@
         <v>321</v>
       </c>
       <c r="K358" t="n">
-        <v>-7.692307692307693</v>
+        <v>-60</v>
       </c>
       <c r="L358" t="n">
         <v>266.2</v>
@@ -18537,7 +18559,7 @@
         <v>321</v>
       </c>
       <c r="K359" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L359" t="n">
         <v>265.9</v>
@@ -18588,7 +18610,7 @@
         <v>321</v>
       </c>
       <c r="K360" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L360" t="n">
         <v>265.6</v>
@@ -18639,7 +18661,7 @@
         <v>321</v>
       </c>
       <c r="K361" t="n">
-        <v>-40</v>
+        <v>-50</v>
       </c>
       <c r="L361" t="n">
         <v>265.4</v>
@@ -18690,7 +18712,7 @@
         <v>322</v>
       </c>
       <c r="K362" t="n">
-        <v>-55.55555555555556</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L362" t="n">
         <v>265.3</v>
@@ -18741,7 +18763,7 @@
         <v>323</v>
       </c>
       <c r="K363" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="L363" t="n">
         <v>265.3</v>
@@ -18792,7 +18814,7 @@
         <v>323</v>
       </c>
       <c r="K364" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L364" t="n">
         <v>265.3</v>
@@ -18843,7 +18865,7 @@
         <v>323</v>
       </c>
       <c r="K365" t="n">
-        <v>-50</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L365" t="n">
         <v>265.2</v>
@@ -18894,7 +18916,7 @@
         <v>324</v>
       </c>
       <c r="K366" t="n">
-        <v>-55.55555555555556</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L366" t="n">
         <v>265</v>
@@ -18945,7 +18967,7 @@
         <v>325</v>
       </c>
       <c r="K367" t="n">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L367" t="n">
         <v>265</v>
@@ -18996,7 +19018,7 @@
         <v>326</v>
       </c>
       <c r="K368" t="n">
-        <v>-45.45454545454545</v>
+        <v>-20</v>
       </c>
       <c r="L368" t="n">
         <v>264.9</v>
@@ -19047,7 +19069,7 @@
         <v>327</v>
       </c>
       <c r="K369" t="n">
-        <v>-27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L369" t="n">
         <v>264.9</v>
@@ -19098,7 +19120,7 @@
         <v>331</v>
       </c>
       <c r="K370" t="n">
-        <v>-46.66666666666666</v>
+        <v>-40</v>
       </c>
       <c r="L370" t="n">
         <v>264.5</v>
@@ -19149,7 +19171,7 @@
         <v>333</v>
       </c>
       <c r="K371" t="n">
-        <v>-25</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L371" t="n">
         <v>264.3</v>
@@ -19200,7 +19222,7 @@
         <v>334</v>
       </c>
       <c r="K372" t="n">
-        <v>-17.64705882352941</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L372" t="n">
         <v>264.1</v>
@@ -19251,7 +19273,7 @@
         <v>335</v>
       </c>
       <c r="K373" t="n">
-        <v>-12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L373" t="n">
         <v>263.9</v>
@@ -19302,7 +19324,7 @@
         <v>335</v>
       </c>
       <c r="K374" t="n">
-        <v>-12.5</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L374" t="n">
         <v>263.7</v>
@@ -19353,7 +19375,7 @@
         <v>336</v>
       </c>
       <c r="K375" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L375" t="n">
         <v>263.6</v>
@@ -19404,7 +19426,7 @@
         <v>336</v>
       </c>
       <c r="K376" t="n">
-        <v>-12.5</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L376" t="n">
         <v>263.6</v>
@@ -19455,7 +19477,7 @@
         <v>336</v>
       </c>
       <c r="K377" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L377" t="n">
         <v>263.5</v>
@@ -19557,7 +19579,7 @@
         <v>339</v>
       </c>
       <c r="K379" t="n">
-        <v>-11.11111111111111</v>
+        <v>25</v>
       </c>
       <c r="L379" t="n">
         <v>263.4</v>
@@ -19608,7 +19630,7 @@
         <v>339</v>
       </c>
       <c r="K380" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L380" t="n">
         <v>263.6</v>
@@ -19659,7 +19681,7 @@
         <v>339</v>
       </c>
       <c r="K381" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L381" t="n">
         <v>263.6</v>
@@ -19710,7 +19732,7 @@
         <v>340</v>
       </c>
       <c r="K382" t="n">
-        <v>-11.11111111111111</v>
+        <v>20</v>
       </c>
       <c r="L382" t="n">
         <v>263.6</v>
@@ -19761,7 +19783,7 @@
         <v>341</v>
       </c>
       <c r="K383" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L383" t="n">
         <v>263.6</v>
@@ -19812,7 +19834,7 @@
         <v>342</v>
       </c>
       <c r="K384" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L384" t="n">
         <v>263.7</v>
@@ -19863,7 +19885,7 @@
         <v>342</v>
       </c>
       <c r="K385" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L385" t="n">
         <v>263.7</v>
@@ -19965,7 +19987,7 @@
         <v>343</v>
       </c>
       <c r="K387" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L387" t="n">
         <v>263.6</v>
@@ -20016,7 +20038,7 @@
         <v>343</v>
       </c>
       <c r="K388" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L388" t="n">
         <v>263.4</v>
@@ -20067,7 +20089,7 @@
         <v>343</v>
       </c>
       <c r="K389" t="n">
-        <v>-12.5</v>
+        <v>0</v>
       </c>
       <c r="L389" t="n">
         <v>263.4</v>
@@ -20118,7 +20140,7 @@
         <v>344</v>
       </c>
       <c r="K390" t="n">
-        <v>7.692307692307693</v>
+        <v>-20</v>
       </c>
       <c r="L390" t="n">
         <v>263.3</v>
@@ -20169,7 +20191,7 @@
         <v>345</v>
       </c>
       <c r="K391" t="n">
-        <v>-16.66666666666666</v>
+        <v>-60</v>
       </c>
       <c r="L391" t="n">
         <v>263.1</v>
@@ -20220,7 +20242,7 @@
         <v>347</v>
       </c>
       <c r="K392" t="n">
-        <v>-7.692307692307693</v>
+        <v>0</v>
       </c>
       <c r="L392" t="n">
         <v>263</v>
@@ -20271,7 +20293,7 @@
         <v>349</v>
       </c>
       <c r="K393" t="n">
-        <v>-14.28571428571428</v>
+        <v>-42.85714285714285</v>
       </c>
       <c r="L393" t="n">
         <v>262.8</v>
@@ -20322,7 +20344,7 @@
         <v>350</v>
       </c>
       <c r="K394" t="n">
-        <v>-6.666666666666667</v>
+        <v>-25</v>
       </c>
       <c r="L394" t="n">
         <v>262.6</v>
@@ -20373,7 +20395,7 @@
         <v>351</v>
       </c>
       <c r="K395" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L395" t="n">
         <v>262.3</v>
@@ -20424,7 +20446,7 @@
         <v>354</v>
       </c>
       <c r="K396" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L396" t="n">
         <v>262.3</v>
@@ -20475,7 +20497,7 @@
         <v>354</v>
       </c>
       <c r="K397" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L397" t="n">
         <v>262.4</v>
@@ -20526,7 +20548,7 @@
         <v>354</v>
       </c>
       <c r="K398" t="n">
-        <v>-5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L398" t="n">
         <v>262.5</v>
@@ -20577,7 +20599,7 @@
         <v>356</v>
       </c>
       <c r="K399" t="n">
-        <v>-5.88235294117647</v>
+        <v>0</v>
       </c>
       <c r="L399" t="n">
         <v>262.4</v>
@@ -20628,7 +20650,7 @@
         <v>356</v>
       </c>
       <c r="K400" t="n">
-        <v>-5.88235294117647</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L400" t="n">
         <v>262.4</v>
@@ -20730,7 +20752,7 @@
         <v>359</v>
       </c>
       <c r="K402" t="n">
-        <v>-15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L402" t="n">
         <v>262.4</v>
@@ -20781,7 +20803,7 @@
         <v>361</v>
       </c>
       <c r="K403" t="n">
-        <v>0</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L403" t="n">
         <v>262.6</v>
@@ -20832,7 +20854,7 @@
         <v>361</v>
       </c>
       <c r="K404" t="n">
-        <v>-5.263157894736842</v>
+        <v>20</v>
       </c>
       <c r="L404" t="n">
         <v>262.7</v>
@@ -20883,7 +20905,7 @@
         <v>361</v>
       </c>
       <c r="K405" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L405" t="n">
         <v>262.9</v>
@@ -20934,7 +20956,7 @@
         <v>361</v>
       </c>
       <c r="K406" t="n">
-        <v>-5.263157894736842</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L406" t="n">
         <v>262.8</v>
@@ -20985,7 +21007,7 @@
         <v>362</v>
       </c>
       <c r="K407" t="n">
-        <v>-5.263157894736842</v>
+        <v>-25</v>
       </c>
       <c r="L407" t="n">
         <v>262.6</v>
@@ -21036,7 +21058,7 @@
         <v>362</v>
       </c>
       <c r="K408" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L408" t="n">
         <v>262.4</v>
@@ -21087,7 +21109,7 @@
         <v>362</v>
       </c>
       <c r="K409" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L409" t="n">
         <v>262.4</v>
@@ -21138,7 +21160,7 @@
         <v>362</v>
       </c>
       <c r="K410" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L410" t="n">
         <v>262.4</v>
@@ -21189,7 +21211,7 @@
         <v>363</v>
       </c>
       <c r="K411" t="n">
-        <v>11.11111111111111</v>
+        <v>50</v>
       </c>
       <c r="L411" t="n">
         <v>262.4</v>
@@ -21240,7 +21262,7 @@
         <v>366</v>
       </c>
       <c r="K412" t="n">
-        <v>-15.78947368421053</v>
+        <v>-60</v>
       </c>
       <c r="L412" t="n">
         <v>262.3</v>
@@ -21291,7 +21313,7 @@
         <v>367</v>
       </c>
       <c r="K413" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L413" t="n">
         <v>262.1</v>
@@ -21342,7 +21364,7 @@
         <v>367</v>
       </c>
       <c r="K414" t="n">
-        <v>-5.88235294117647</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L414" t="n">
         <v>261.9</v>
@@ -21393,7 +21415,7 @@
         <v>368</v>
       </c>
       <c r="K415" t="n">
-        <v>5.88235294117647</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L415" t="n">
         <v>261.8</v>
@@ -21444,7 +21466,7 @@
         <v>368</v>
       </c>
       <c r="K416" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L416" t="n">
         <v>261.7</v>
@@ -21495,7 +21517,7 @@
         <v>368</v>
       </c>
       <c r="K417" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L417" t="n">
         <v>261.7</v>
@@ -21546,7 +21568,7 @@
         <v>368</v>
       </c>
       <c r="K418" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L418" t="n">
         <v>261.7</v>
@@ -21597,7 +21619,7 @@
         <v>369</v>
       </c>
       <c r="K419" t="n">
-        <v>-7.692307692307693</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L419" t="n">
         <v>261.6</v>
@@ -21648,7 +21670,7 @@
         <v>369</v>
       </c>
       <c r="K420" t="n">
-        <v>-7.692307692307693</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L420" t="n">
         <v>261.5</v>
@@ -21699,7 +21721,7 @@
         <v>370</v>
       </c>
       <c r="K421" t="n">
-        <v>-23.07692307692308</v>
+        <v>0</v>
       </c>
       <c r="L421" t="n">
         <v>261.2</v>
@@ -21801,7 +21823,7 @@
         <v>371</v>
       </c>
       <c r="K423" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L423" t="n">
         <v>261.3</v>
@@ -21852,7 +21874,7 @@
         <v>371</v>
       </c>
       <c r="K424" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L424" t="n">
         <v>261.3</v>
@@ -21903,7 +21925,7 @@
         <v>371</v>
       </c>
       <c r="K425" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L425" t="n">
         <v>261.2</v>
@@ -21954,7 +21976,7 @@
         <v>371</v>
       </c>
       <c r="K426" t="n">
-        <v>-20</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L426" t="n">
         <v>261.1</v>
@@ -22005,7 +22027,7 @@
         <v>371</v>
       </c>
       <c r="K427" t="n">
-        <v>-11.11111111111111</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L427" t="n">
         <v>261</v>
@@ -22056,7 +22078,7 @@
         <v>371</v>
       </c>
       <c r="K428" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L428" t="n">
         <v>260.9</v>
@@ -22107,7 +22129,7 @@
         <v>371</v>
       </c>
       <c r="K429" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L429" t="n">
         <v>260.9</v>
@@ -22158,7 +22180,7 @@
         <v>371</v>
       </c>
       <c r="K430" t="n">
-        <v>-11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="L430" t="n">
         <v>260.9</v>
@@ -22208,9 +22230,7 @@
       <c r="J431" t="n">
         <v>371</v>
       </c>
-      <c r="K431" t="n">
-        <v>-25</v>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>261</v>
       </c>
@@ -22259,9 +22279,7 @@
       <c r="J432" t="n">
         <v>371</v>
       </c>
-      <c r="K432" t="n">
-        <v>20</v>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>261</v>
       </c>
@@ -22310,9 +22328,7 @@
       <c r="J433" t="n">
         <v>371</v>
       </c>
-      <c r="K433" t="n">
-        <v>0</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>261</v>
       </c>
@@ -22362,7 +22378,7 @@
         <v>372</v>
       </c>
       <c r="K434" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L434" t="n">
         <v>260.9</v>
@@ -22413,7 +22429,7 @@
         <v>373</v>
       </c>
       <c r="K435" t="n">
-        <v>-20</v>
+        <v>0</v>
       </c>
       <c r="L435" t="n">
         <v>260.9</v>
@@ -22464,7 +22480,7 @@
         <v>374</v>
       </c>
       <c r="K436" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L436" t="n">
         <v>261</v>
@@ -22515,7 +22531,7 @@
         <v>375</v>
       </c>
       <c r="K437" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L437" t="n">
         <v>261</v>
@@ -22566,7 +22582,7 @@
         <v>375</v>
       </c>
       <c r="K438" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L438" t="n">
         <v>261</v>
@@ -22617,7 +22633,7 @@
         <v>376</v>
       </c>
       <c r="K439" t="n">
-        <v>14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L439" t="n">
         <v>261.1</v>
@@ -22668,7 +22684,7 @@
         <v>377</v>
       </c>
       <c r="K440" t="n">
-        <v>25</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L440" t="n">
         <v>261.3</v>
@@ -22719,7 +22735,7 @@
         <v>377</v>
       </c>
       <c r="K441" t="n">
-        <v>42.85714285714285</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L441" t="n">
         <v>261.5</v>
@@ -22821,7 +22837,7 @@
         <v>378</v>
       </c>
       <c r="K443" t="n">
-        <v>42.85714285714285</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L443" t="n">
         <v>262</v>
@@ -22872,7 +22888,7 @@
         <v>378</v>
       </c>
       <c r="K444" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L444" t="n">
         <v>262.4</v>
@@ -22923,7 +22939,7 @@
         <v>380</v>
       </c>
       <c r="K445" t="n">
-        <v>55.55555555555556</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L445" t="n">
         <v>262.9</v>
@@ -22974,7 +22990,7 @@
         <v>382</v>
       </c>
       <c r="K446" t="n">
-        <v>27.27272727272727</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L446" t="n">
         <v>263.1</v>
@@ -23025,7 +23041,7 @@
         <v>383</v>
       </c>
       <c r="K447" t="n">
-        <v>33.33333333333333</v>
+        <v>50</v>
       </c>
       <c r="L447" t="n">
         <v>263.5</v>
@@ -23076,7 +23092,7 @@
         <v>383</v>
       </c>
       <c r="K448" t="n">
-        <v>33.33333333333333</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L448" t="n">
         <v>263.9</v>
@@ -23127,7 +23143,7 @@
         <v>384</v>
       </c>
       <c r="K449" t="n">
-        <v>23.07692307692308</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L449" t="n">
         <v>264.1</v>
@@ -23178,7 +23194,7 @@
         <v>386</v>
       </c>
       <c r="K450" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L450" t="n">
         <v>264</v>
@@ -23229,7 +23245,7 @@
         <v>386</v>
       </c>
       <c r="K451" t="n">
-        <v>6.666666666666667</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L451" t="n">
         <v>263.9</v>
@@ -23280,7 +23296,7 @@
         <v>389</v>
       </c>
       <c r="K452" t="n">
-        <v>22.22222222222222</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L452" t="n">
         <v>264.1</v>
@@ -23331,7 +23347,7 @@
         <v>391</v>
       </c>
       <c r="K453" t="n">
-        <v>10</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L453" t="n">
         <v>264</v>
@@ -23382,7 +23398,7 @@
         <v>392</v>
       </c>
       <c r="K454" t="n">
-        <v>20</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L454" t="n">
         <v>264</v>
@@ -23433,7 +23449,7 @@
         <v>392</v>
       </c>
       <c r="K455" t="n">
-        <v>15.78947368421053</v>
+        <v>0</v>
       </c>
       <c r="L455" t="n">
         <v>263.8</v>
@@ -23484,7 +23500,7 @@
         <v>392</v>
       </c>
       <c r="K456" t="n">
-        <v>11.11111111111111</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L456" t="n">
         <v>263.8</v>
@@ -23535,7 +23551,7 @@
         <v>394</v>
       </c>
       <c r="K457" t="n">
-        <v>5.263157894736842</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L457" t="n">
         <v>263.5</v>
@@ -23586,7 +23602,7 @@
         <v>395</v>
       </c>
       <c r="K458" t="n">
-        <v>0</v>
+        <v>-27.27272727272727</v>
       </c>
       <c r="L458" t="n">
         <v>263.1</v>
@@ -23637,7 +23653,7 @@
         <v>396</v>
       </c>
       <c r="K459" t="n">
-        <v>-10</v>
+        <v>-20</v>
       </c>
       <c r="L459" t="n">
         <v>262.7</v>
@@ -23688,7 +23704,7 @@
         <v>399</v>
       </c>
       <c r="K460" t="n">
-        <v>0</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L460" t="n">
         <v>262.8</v>
@@ -23739,7 +23755,7 @@
         <v>401</v>
       </c>
       <c r="K461" t="n">
-        <v>-8.333333333333332</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L461" t="n">
         <v>262.7</v>
@@ -23790,7 +23806,7 @@
         <v>402</v>
       </c>
       <c r="K462" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L462" t="n">
         <v>262.4</v>
@@ -23841,7 +23857,7 @@
         <v>403</v>
       </c>
       <c r="K463" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L463" t="n">
         <v>262.4</v>
@@ -23892,7 +23908,7 @@
         <v>403</v>
       </c>
       <c r="K464" t="n">
-        <v>-4</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L464" t="n">
         <v>262.3</v>
@@ -23943,7 +23959,7 @@
         <v>403</v>
       </c>
       <c r="K465" t="n">
-        <v>-13.04347826086956</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L465" t="n">
         <v>262.2</v>
@@ -23994,7 +24010,7 @@
         <v>403</v>
       </c>
       <c r="K466" t="n">
-        <v>-4.761904761904762</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L466" t="n">
         <v>262.1</v>
@@ -24045,7 +24061,7 @@
         <v>403</v>
       </c>
       <c r="K467" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L467" t="n">
         <v>262.2</v>
@@ -24096,7 +24112,7 @@
         <v>403</v>
       </c>
       <c r="K468" t="n">
-        <v>-10</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L468" t="n">
         <v>262.4</v>
@@ -24147,7 +24163,7 @@
         <v>403</v>
       </c>
       <c r="K469" t="n">
-        <v>-5.263157894736842</v>
+        <v>0</v>
       </c>
       <c r="L469" t="n">
         <v>262.7</v>
@@ -24198,7 +24214,7 @@
         <v>404</v>
       </c>
       <c r="K470" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L470" t="n">
         <v>262.6</v>
@@ -24249,7 +24265,7 @@
         <v>405</v>
       </c>
       <c r="K471" t="n">
-        <v>-5.263157894736842</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L471" t="n">
         <v>262.6</v>
@@ -24300,7 +24316,7 @@
         <v>405</v>
       </c>
       <c r="K472" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L472" t="n">
         <v>262.5</v>
@@ -24351,7 +24367,7 @@
         <v>405</v>
       </c>
       <c r="K473" t="n">
-        <v>-14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L473" t="n">
         <v>262.3</v>
@@ -24402,7 +24418,7 @@
         <v>405</v>
       </c>
       <c r="K474" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L474" t="n">
         <v>262.1</v>
@@ -24453,7 +24469,7 @@
         <v>405</v>
       </c>
       <c r="K475" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L475" t="n">
         <v>261.9</v>
@@ -24504,7 +24520,7 @@
         <v>405</v>
       </c>
       <c r="K476" t="n">
-        <v>-23.07692307692308</v>
+        <v>-100</v>
       </c>
       <c r="L476" t="n">
         <v>261.7</v>
@@ -24555,7 +24571,7 @@
         <v>405</v>
       </c>
       <c r="K477" t="n">
-        <v>-9.090909090909092</v>
+        <v>-100</v>
       </c>
       <c r="L477" t="n">
         <v>261.5</v>
@@ -24606,7 +24622,7 @@
         <v>405</v>
       </c>
       <c r="K478" t="n">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L478" t="n">
         <v>261.3</v>
@@ -24657,7 +24673,7 @@
         <v>405</v>
       </c>
       <c r="K479" t="n">
-        <v>11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L479" t="n">
         <v>261.1</v>
@@ -24708,7 +24724,7 @@
         <v>406</v>
       </c>
       <c r="K480" t="n">
-        <v>-42.85714285714285</v>
+        <v>-100</v>
       </c>
       <c r="L480" t="n">
         <v>260.9</v>
@@ -24759,7 +24775,7 @@
         <v>406</v>
       </c>
       <c r="K481" t="n">
-        <v>-20</v>
+        <v>-100</v>
       </c>
       <c r="L481" t="n">
         <v>260.8</v>
@@ -24810,7 +24826,7 @@
         <v>406</v>
       </c>
       <c r="K482" t="n">
-        <v>-50</v>
+        <v>-100</v>
       </c>
       <c r="L482" t="n">
         <v>260.7</v>

--- a/BackTest/2019-10-16 BackTest BAT.xlsx
+++ b/BackTest/2019-10-16 BackTest BAT.xlsx
@@ -1886,17 +1886,13 @@
         <v>264.3833333333333</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>257</v>
-      </c>
-      <c r="K43" t="n">
-        <v>257</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
@@ -1925,22 +1921,14 @@
         <v>264.3</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>257</v>
-      </c>
-      <c r="K44" t="n">
-        <v>257</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -1968,22 +1956,14 @@
         <v>264.2166666666666</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>257</v>
-      </c>
-      <c r="K45" t="n">
-        <v>257</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2011,17 +1991,13 @@
         <v>264.1</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>257</v>
-      </c>
-      <c r="K46" t="n">
-        <v>257</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2058,9 +2034,7 @@
       <c r="J47" t="n">
         <v>257</v>
       </c>
-      <c r="K47" t="n">
-        <v>257</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -2099,11 +2073,9 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>261</v>
-      </c>
-      <c r="K48" t="n">
-        <v>257</v>
-      </c>
+        <v>258</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2142,11 +2114,9 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>263</v>
-      </c>
-      <c r="K49" t="n">
-        <v>257</v>
-      </c>
+        <v>261</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2187,9 +2157,7 @@
       <c r="J50" t="n">
         <v>263</v>
       </c>
-      <c r="K50" t="n">
-        <v>257</v>
-      </c>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2222,17 +2190,13 @@
         <v>263.8333333333333</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>264</v>
-      </c>
-      <c r="K51" t="n">
-        <v>257</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2265,17 +2229,13 @@
         <v>263.8</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>264</v>
-      </c>
-      <c r="K52" t="n">
-        <v>257</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2314,9 +2274,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>257</v>
-      </c>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2355,9 +2313,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>257</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2396,9 +2352,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>257</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2437,9 +2391,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>257</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2478,9 +2430,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>257</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2519,9 +2469,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>257</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2560,9 +2508,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>257</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2601,9 +2547,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>257</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2642,9 +2586,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>257</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2683,9 +2625,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>257</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2724,9 +2664,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>257</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2765,9 +2703,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>257</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2806,9 +2742,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>257</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2847,9 +2781,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>257</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2888,9 +2820,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>257</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2929,9 +2859,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>257</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2970,9 +2898,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>257</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3011,9 +2937,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>257</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3052,9 +2976,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>257</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3093,9 +3015,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>257</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3134,9 +3054,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>257</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3175,9 +3093,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>257</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3216,9 +3132,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>257</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3257,9 +3171,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>257</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3298,9 +3210,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>257</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3339,9 +3249,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>257</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3380,9 +3288,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>257</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3421,9 +3327,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>257</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3462,9 +3366,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>257</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3503,9 +3405,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>257</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3544,9 +3444,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>257</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3585,9 +3483,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>257</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3626,9 +3522,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>257</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3667,9 +3561,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>257</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3708,9 +3600,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>257</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3749,9 +3639,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>257</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3790,9 +3678,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>257</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3831,9 +3717,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>257</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3872,9 +3756,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>257</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3913,9 +3795,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>257</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3954,9 +3834,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>257</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3995,9 +3873,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>257</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4036,9 +3912,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>257</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4077,9 +3951,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>257</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4118,9 +3990,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>257</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4159,9 +4029,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>257</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4200,9 +4068,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>257</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4241,9 +4107,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>257</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4282,9 +4146,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>257</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4323,9 +4185,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>257</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4364,9 +4224,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>257</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4405,9 +4263,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>257</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4446,9 +4302,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>257</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4487,9 +4341,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>257</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4528,9 +4380,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>257</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4569,9 +4419,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>257</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4610,9 +4458,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>257</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4651,9 +4497,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>257</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4692,9 +4536,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>257</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4733,9 +4575,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>257</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4774,9 +4614,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>257</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4815,9 +4653,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>257</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4856,9 +4692,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>257</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4897,9 +4731,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>257</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4938,9 +4770,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>257</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4979,9 +4809,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>257</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5020,9 +4848,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>257</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5061,9 +4887,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>257</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5102,9 +4926,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>257</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5143,9 +4965,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>257</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5184,9 +5004,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>257</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5225,9 +5043,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>257</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5266,9 +5082,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>257</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5307,9 +5121,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>257</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5348,9 +5160,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>257</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5386,1735 +5196,1927 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>257</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>272</v>
+      </c>
+      <c r="C129" t="n">
+        <v>272</v>
+      </c>
+      <c r="D129" t="n">
+        <v>272</v>
+      </c>
+      <c r="E129" t="n">
+        <v>272</v>
+      </c>
+      <c r="F129" t="n">
+        <v>40.9045</v>
+      </c>
+      <c r="G129" t="n">
+        <v>266.6333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>272</v>
+      </c>
+      <c r="C130" t="n">
+        <v>274</v>
+      </c>
+      <c r="D130" t="n">
+        <v>274</v>
+      </c>
+      <c r="E130" t="n">
+        <v>272</v>
+      </c>
+      <c r="F130" t="n">
+        <v>2535.7524</v>
+      </c>
+      <c r="G130" t="n">
+        <v>266.75</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>273</v>
+      </c>
+      <c r="C131" t="n">
+        <v>274</v>
+      </c>
+      <c r="D131" t="n">
+        <v>274</v>
+      </c>
+      <c r="E131" t="n">
+        <v>273</v>
+      </c>
+      <c r="F131" t="n">
+        <v>100</v>
+      </c>
+      <c r="G131" t="n">
+        <v>266.9</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>274</v>
+      </c>
+      <c r="C132" t="n">
+        <v>274</v>
+      </c>
+      <c r="D132" t="n">
+        <v>274</v>
+      </c>
+      <c r="E132" t="n">
+        <v>274</v>
+      </c>
+      <c r="F132" t="n">
+        <v>314.2591</v>
+      </c>
+      <c r="G132" t="n">
+        <v>267.05</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>272</v>
+      </c>
+      <c r="C133" t="n">
+        <v>272</v>
+      </c>
+      <c r="D133" t="n">
+        <v>272</v>
+      </c>
+      <c r="E133" t="n">
+        <v>272</v>
+      </c>
+      <c r="F133" t="n">
+        <v>123.9375</v>
+      </c>
+      <c r="G133" t="n">
+        <v>267.1666666666667</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>273</v>
+      </c>
+      <c r="C134" t="n">
+        <v>273</v>
+      </c>
+      <c r="D134" t="n">
+        <v>273</v>
+      </c>
+      <c r="E134" t="n">
+        <v>273</v>
+      </c>
+      <c r="F134" t="n">
+        <v>111.8571</v>
+      </c>
+      <c r="G134" t="n">
+        <v>267.3</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>272</v>
+      </c>
+      <c r="C135" t="n">
+        <v>272</v>
+      </c>
+      <c r="D135" t="n">
+        <v>272</v>
+      </c>
+      <c r="E135" t="n">
+        <v>272</v>
+      </c>
+      <c r="F135" t="n">
+        <v>8420.4511</v>
+      </c>
+      <c r="G135" t="n">
+        <v>267.4166666666667</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>272</v>
+      </c>
+      <c r="C136" t="n">
+        <v>272</v>
+      </c>
+      <c r="D136" t="n">
+        <v>272</v>
+      </c>
+      <c r="E136" t="n">
+        <v>272</v>
+      </c>
+      <c r="F136" t="n">
+        <v>3259.225</v>
+      </c>
+      <c r="G136" t="n">
+        <v>267.5333333333334</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>271</v>
+      </c>
+      <c r="C137" t="n">
+        <v>271</v>
+      </c>
+      <c r="D137" t="n">
+        <v>271</v>
+      </c>
+      <c r="E137" t="n">
+        <v>271</v>
+      </c>
+      <c r="F137" t="n">
+        <v>2536.4422</v>
+      </c>
+      <c r="G137" t="n">
+        <v>267.65</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>271</v>
+      </c>
+      <c r="C138" t="n">
+        <v>271</v>
+      </c>
+      <c r="D138" t="n">
+        <v>271</v>
+      </c>
+      <c r="E138" t="n">
+        <v>271</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4002.26</v>
+      </c>
+      <c r="G138" t="n">
+        <v>267.7666666666667</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>270</v>
+      </c>
+      <c r="C139" t="n">
+        <v>269</v>
+      </c>
+      <c r="D139" t="n">
+        <v>270</v>
+      </c>
+      <c r="E139" t="n">
+        <v>269</v>
+      </c>
+      <c r="F139" t="n">
+        <v>40496.1375</v>
+      </c>
+      <c r="G139" t="n">
+        <v>267.8333333333333</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>268</v>
+      </c>
+      <c r="C140" t="n">
+        <v>269</v>
+      </c>
+      <c r="D140" t="n">
+        <v>269</v>
+      </c>
+      <c r="E140" t="n">
+        <v>268</v>
+      </c>
+      <c r="F140" t="n">
+        <v>2340.4313</v>
+      </c>
+      <c r="G140" t="n">
+        <v>267.8833333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>268</v>
+      </c>
+      <c r="C141" t="n">
+        <v>268</v>
+      </c>
+      <c r="D141" t="n">
+        <v>268</v>
+      </c>
+      <c r="E141" t="n">
+        <v>268</v>
+      </c>
+      <c r="F141" t="n">
+        <v>688.1143</v>
+      </c>
+      <c r="G141" t="n">
+        <v>267.9333333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>269</v>
+      </c>
+      <c r="C142" t="n">
+        <v>269</v>
+      </c>
+      <c r="D142" t="n">
+        <v>269</v>
+      </c>
+      <c r="E142" t="n">
+        <v>269</v>
+      </c>
+      <c r="F142" t="n">
+        <v>9.933</v>
+      </c>
+      <c r="G142" t="n">
+        <v>268</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>267</v>
+      </c>
+      <c r="C143" t="n">
+        <v>267</v>
+      </c>
+      <c r="D143" t="n">
+        <v>267</v>
+      </c>
+      <c r="E143" t="n">
+        <v>267</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1243.8604</v>
+      </c>
+      <c r="G143" t="n">
+        <v>268.0333333333334</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>269</v>
+      </c>
+      <c r="C144" t="n">
+        <v>269</v>
+      </c>
+      <c r="D144" t="n">
+        <v>269</v>
+      </c>
+      <c r="E144" t="n">
+        <v>269</v>
+      </c>
+      <c r="F144" t="n">
+        <v>4134.7267</v>
+      </c>
+      <c r="G144" t="n">
+        <v>268.1166666666667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>270</v>
+      </c>
+      <c r="C145" t="n">
+        <v>270</v>
+      </c>
+      <c r="D145" t="n">
+        <v>270</v>
+      </c>
+      <c r="E145" t="n">
+        <v>270</v>
+      </c>
+      <c r="F145" t="n">
+        <v>193.5037</v>
+      </c>
+      <c r="G145" t="n">
+        <v>268.25</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>268</v>
+      </c>
+      <c r="C146" t="n">
+        <v>269</v>
+      </c>
+      <c r="D146" t="n">
+        <v>269</v>
+      </c>
+      <c r="E146" t="n">
+        <v>268</v>
+      </c>
+      <c r="F146" t="n">
+        <v>11876.7145</v>
+      </c>
+      <c r="G146" t="n">
+        <v>268.3666666666667</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>270</v>
+      </c>
+      <c r="C147" t="n">
+        <v>270</v>
+      </c>
+      <c r="D147" t="n">
+        <v>270</v>
+      </c>
+      <c r="E147" t="n">
+        <v>270</v>
+      </c>
+      <c r="F147" t="n">
+        <v>6135.2776</v>
+      </c>
+      <c r="G147" t="n">
+        <v>268.5</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>270</v>
+      </c>
+      <c r="C148" t="n">
+        <v>270</v>
+      </c>
+      <c r="D148" t="n">
+        <v>270</v>
+      </c>
+      <c r="E148" t="n">
+        <v>270</v>
+      </c>
+      <c r="F148" t="n">
+        <v>6135.2776</v>
+      </c>
+      <c r="G148" t="n">
+        <v>268.65</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>272</v>
+      </c>
+      <c r="C149" t="n">
+        <v>272</v>
+      </c>
+      <c r="D149" t="n">
+        <v>272</v>
+      </c>
+      <c r="E149" t="n">
+        <v>272</v>
+      </c>
+      <c r="F149" t="n">
+        <v>4311.9338</v>
+      </c>
+      <c r="G149" t="n">
+        <v>268.8166666666667</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>271</v>
+      </c>
+      <c r="C150" t="n">
+        <v>272</v>
+      </c>
+      <c r="D150" t="n">
+        <v>272</v>
+      </c>
+      <c r="E150" t="n">
+        <v>271</v>
+      </c>
+      <c r="F150" t="n">
+        <v>3167.074</v>
+      </c>
+      <c r="G150" t="n">
+        <v>268.9833333333333</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>271</v>
+      </c>
+      <c r="C151" t="n">
+        <v>271</v>
+      </c>
+      <c r="D151" t="n">
+        <v>271</v>
+      </c>
+      <c r="E151" t="n">
+        <v>271</v>
+      </c>
+      <c r="F151" t="n">
+        <v>415.6821</v>
+      </c>
+      <c r="G151" t="n">
+        <v>269.1333333333333</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>0</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>271</v>
+      </c>
+      <c r="C152" t="n">
+        <v>270</v>
+      </c>
+      <c r="D152" t="n">
+        <v>271</v>
+      </c>
+      <c r="E152" t="n">
+        <v>270</v>
+      </c>
+      <c r="F152" t="n">
+        <v>216.7661</v>
+      </c>
+      <c r="G152" t="n">
+        <v>269.2666666666667</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>271</v>
+      </c>
+      <c r="C153" t="n">
+        <v>271</v>
+      </c>
+      <c r="D153" t="n">
+        <v>271</v>
+      </c>
+      <c r="E153" t="n">
+        <v>271</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1791.4531</v>
+      </c>
+      <c r="G153" t="n">
+        <v>269.4166666666667</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>271</v>
+      </c>
+      <c r="C154" t="n">
+        <v>271</v>
+      </c>
+      <c r="D154" t="n">
+        <v>271</v>
+      </c>
+      <c r="E154" t="n">
+        <v>271</v>
+      </c>
+      <c r="F154" t="n">
+        <v>789.789</v>
+      </c>
+      <c r="G154" t="n">
+        <v>269.5666666666667</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>271</v>
+      </c>
+      <c r="C155" t="n">
+        <v>271</v>
+      </c>
+      <c r="D155" t="n">
+        <v>271</v>
+      </c>
+      <c r="E155" t="n">
+        <v>271</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1184.6836</v>
+      </c>
+      <c r="G155" t="n">
+        <v>269.7</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>271</v>
+      </c>
+      <c r="C156" t="n">
+        <v>271</v>
+      </c>
+      <c r="D156" t="n">
+        <v>271</v>
+      </c>
+      <c r="E156" t="n">
+        <v>271</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1184.6837</v>
+      </c>
+      <c r="G156" t="n">
+        <v>269.85</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>273</v>
+      </c>
+      <c r="C157" t="n">
+        <v>273</v>
+      </c>
+      <c r="D157" t="n">
+        <v>273</v>
+      </c>
+      <c r="E157" t="n">
+        <v>273</v>
+      </c>
+      <c r="F157" t="n">
+        <v>9325.7348</v>
+      </c>
+      <c r="G157" t="n">
+        <v>270.0333333333334</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>274</v>
+      </c>
+      <c r="C158" t="n">
+        <v>274</v>
+      </c>
+      <c r="D158" t="n">
+        <v>274</v>
+      </c>
+      <c r="E158" t="n">
+        <v>274</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10109.6557</v>
+      </c>
+      <c r="G158" t="n">
+        <v>270.2333333333333</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>274</v>
+      </c>
+      <c r="C159" t="n">
+        <v>274</v>
+      </c>
+      <c r="D159" t="n">
+        <v>274</v>
+      </c>
+      <c r="E159" t="n">
+        <v>274</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1061.0857</v>
+      </c>
+      <c r="G159" t="n">
+        <v>270.4166666666667</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>274</v>
+      </c>
+      <c r="C160" t="n">
+        <v>274</v>
+      </c>
+      <c r="D160" t="n">
+        <v>274</v>
+      </c>
+      <c r="E160" t="n">
+        <v>274</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1168.6986</v>
+      </c>
+      <c r="G160" t="n">
+        <v>270.6</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>275</v>
+      </c>
+      <c r="C161" t="n">
+        <v>275</v>
+      </c>
+      <c r="D161" t="n">
+        <v>275</v>
+      </c>
+      <c r="E161" t="n">
+        <v>275</v>
+      </c>
+      <c r="F161" t="n">
+        <v>3658.448</v>
+      </c>
+      <c r="G161" t="n">
+        <v>270.7833333333334</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>275</v>
+      </c>
+      <c r="C162" t="n">
+        <v>275</v>
+      </c>
+      <c r="D162" t="n">
+        <v>275</v>
+      </c>
+      <c r="E162" t="n">
+        <v>273</v>
+      </c>
+      <c r="F162" t="n">
+        <v>10798.0704</v>
+      </c>
+      <c r="G162" t="n">
+        <v>271</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>275</v>
+      </c>
+      <c r="C163" t="n">
+        <v>274</v>
+      </c>
+      <c r="D163" t="n">
+        <v>275</v>
+      </c>
+      <c r="E163" t="n">
+        <v>274</v>
+      </c>
+      <c r="F163" t="n">
+        <v>948</v>
+      </c>
+      <c r="G163" t="n">
+        <v>271.1833333333333</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>276</v>
+      </c>
+      <c r="C164" t="n">
+        <v>276</v>
+      </c>
+      <c r="D164" t="n">
+        <v>276</v>
+      </c>
+      <c r="E164" t="n">
+        <v>276</v>
+      </c>
+      <c r="F164" t="n">
+        <v>10</v>
+      </c>
+      <c r="G164" t="n">
+        <v>271.3333333333333</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>275</v>
+      </c>
+      <c r="C165" t="n">
+        <v>274</v>
+      </c>
+      <c r="D165" t="n">
+        <v>275</v>
+      </c>
+      <c r="E165" t="n">
+        <v>273</v>
+      </c>
+      <c r="F165" t="n">
+        <v>21531.9138</v>
+      </c>
+      <c r="G165" t="n">
+        <v>271.4166666666667</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>275</v>
+      </c>
+      <c r="C166" t="n">
+        <v>275</v>
+      </c>
+      <c r="D166" t="n">
+        <v>275</v>
+      </c>
+      <c r="E166" t="n">
+        <v>274</v>
+      </c>
+      <c r="F166" t="n">
+        <v>27936.0819</v>
+      </c>
+      <c r="G166" t="n">
+        <v>271.5166666666667</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>275</v>
+      </c>
+      <c r="C167" t="n">
+        <v>276</v>
+      </c>
+      <c r="D167" t="n">
+        <v>277</v>
+      </c>
+      <c r="E167" t="n">
+        <v>275</v>
+      </c>
+      <c r="F167" t="n">
+        <v>15634.8711</v>
+      </c>
+      <c r="G167" t="n">
+        <v>271.6333333333333</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>276</v>
+      </c>
+      <c r="C168" t="n">
+        <v>277</v>
+      </c>
+      <c r="D168" t="n">
+        <v>277</v>
+      </c>
+      <c r="E168" t="n">
+        <v>275</v>
+      </c>
+      <c r="F168" t="n">
+        <v>15914.54930866426</v>
+      </c>
+      <c r="G168" t="n">
+        <v>271.75</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>276</v>
+      </c>
+      <c r="C169" t="n">
+        <v>276</v>
+      </c>
+      <c r="D169" t="n">
+        <v>277</v>
+      </c>
+      <c r="E169" t="n">
+        <v>276</v>
+      </c>
+      <c r="F169" t="n">
+        <v>957.5409</v>
+      </c>
+      <c r="G169" t="n">
+        <v>271.8666666666667</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>276</v>
+      </c>
+      <c r="C170" t="n">
+        <v>277</v>
+      </c>
+      <c r="D170" t="n">
+        <v>277</v>
+      </c>
+      <c r="E170" t="n">
+        <v>276</v>
+      </c>
+      <c r="F170" t="n">
+        <v>6476.2987</v>
+      </c>
+      <c r="G170" t="n">
+        <v>271.9833333333333</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>277</v>
+      </c>
+      <c r="C171" t="n">
+        <v>277</v>
+      </c>
+      <c r="D171" t="n">
+        <v>277</v>
+      </c>
+      <c r="E171" t="n">
+        <v>277</v>
+      </c>
+      <c r="F171" t="n">
+        <v>27714.8797</v>
+      </c>
+      <c r="G171" t="n">
+        <v>272.0833333333333</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>278</v>
+      </c>
+      <c r="C172" t="n">
+        <v>277</v>
+      </c>
+      <c r="D172" t="n">
+        <v>278</v>
+      </c>
+      <c r="E172" t="n">
+        <v>277</v>
+      </c>
+      <c r="F172" t="n">
+        <v>28679.55582230216</v>
+      </c>
+      <c r="G172" t="n">
+        <v>272.1666666666667</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>276</v>
+      </c>
+      <c r="C173" t="n">
+        <v>278</v>
+      </c>
+      <c r="D173" t="n">
+        <v>278</v>
+      </c>
+      <c r="E173" t="n">
+        <v>276</v>
+      </c>
+      <c r="F173" t="n">
+        <v>2760.129977697842</v>
+      </c>
+      <c r="G173" t="n">
+        <v>272.2666666666667</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>278</v>
+      </c>
+      <c r="C174" t="n">
+        <v>279</v>
+      </c>
+      <c r="D174" t="n">
+        <v>279</v>
+      </c>
+      <c r="E174" t="n">
+        <v>278</v>
+      </c>
+      <c r="F174" t="n">
+        <v>12326.4634</v>
+      </c>
+      <c r="G174" t="n">
+        <v>272.3833333333333</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>278</v>
+      </c>
+      <c r="C175" t="n">
+        <v>280</v>
+      </c>
+      <c r="D175" t="n">
+        <v>280</v>
+      </c>
+      <c r="E175" t="n">
+        <v>278</v>
+      </c>
+      <c r="F175" t="n">
+        <v>34174.11570464286</v>
+      </c>
+      <c r="G175" t="n">
+        <v>272.55</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>280</v>
+      </c>
+      <c r="C176" t="n">
+        <v>280</v>
+      </c>
+      <c r="D176" t="n">
+        <v>280</v>
+      </c>
+      <c r="E176" t="n">
+        <v>280</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8361.1499</v>
+      </c>
+      <c r="G176" t="n">
+        <v>272.7166666666666</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>280</v>
+      </c>
+      <c r="C177" t="n">
+        <v>280</v>
+      </c>
+      <c r="D177" t="n">
+        <v>280</v>
+      </c>
+      <c r="E177" t="n">
+        <v>280</v>
+      </c>
+      <c r="F177" t="n">
+        <v>4656.766</v>
+      </c>
+      <c r="G177" t="n">
+        <v>272.9</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M128" t="n">
-        <v>1.053365758754864</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>272</v>
-      </c>
-      <c r="C129" t="n">
-        <v>272</v>
-      </c>
-      <c r="D129" t="n">
-        <v>272</v>
-      </c>
-      <c r="E129" t="n">
-        <v>272</v>
-      </c>
-      <c r="F129" t="n">
-        <v>40.9045</v>
-      </c>
-      <c r="G129" t="n">
-        <v>266.6333333333333</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>272</v>
-      </c>
-      <c r="C130" t="n">
-        <v>274</v>
-      </c>
-      <c r="D130" t="n">
-        <v>274</v>
-      </c>
-      <c r="E130" t="n">
-        <v>272</v>
-      </c>
-      <c r="F130" t="n">
-        <v>2535.7524</v>
-      </c>
-      <c r="G130" t="n">
-        <v>266.75</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>273</v>
-      </c>
-      <c r="C131" t="n">
-        <v>274</v>
-      </c>
-      <c r="D131" t="n">
-        <v>274</v>
-      </c>
-      <c r="E131" t="n">
-        <v>273</v>
-      </c>
-      <c r="F131" t="n">
-        <v>100</v>
-      </c>
-      <c r="G131" t="n">
-        <v>266.9</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>274</v>
-      </c>
-      <c r="C132" t="n">
-        <v>274</v>
-      </c>
-      <c r="D132" t="n">
-        <v>274</v>
-      </c>
-      <c r="E132" t="n">
-        <v>274</v>
-      </c>
-      <c r="F132" t="n">
-        <v>314.2591</v>
-      </c>
-      <c r="G132" t="n">
-        <v>267.05</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>1</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>272</v>
-      </c>
-      <c r="C133" t="n">
-        <v>272</v>
-      </c>
-      <c r="D133" t="n">
-        <v>272</v>
-      </c>
-      <c r="E133" t="n">
-        <v>272</v>
-      </c>
-      <c r="F133" t="n">
-        <v>123.9375</v>
-      </c>
-      <c r="G133" t="n">
-        <v>267.1666666666667</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>1</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>273</v>
-      </c>
-      <c r="C134" t="n">
-        <v>273</v>
-      </c>
-      <c r="D134" t="n">
-        <v>273</v>
-      </c>
-      <c r="E134" t="n">
-        <v>273</v>
-      </c>
-      <c r="F134" t="n">
-        <v>111.8571</v>
-      </c>
-      <c r="G134" t="n">
-        <v>267.3</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>1</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>272</v>
-      </c>
-      <c r="C135" t="n">
-        <v>272</v>
-      </c>
-      <c r="D135" t="n">
-        <v>272</v>
-      </c>
-      <c r="E135" t="n">
-        <v>272</v>
-      </c>
-      <c r="F135" t="n">
-        <v>8420.4511</v>
-      </c>
-      <c r="G135" t="n">
-        <v>267.4166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>272</v>
-      </c>
-      <c r="C136" t="n">
-        <v>272</v>
-      </c>
-      <c r="D136" t="n">
-        <v>272</v>
-      </c>
-      <c r="E136" t="n">
-        <v>272</v>
-      </c>
-      <c r="F136" t="n">
-        <v>3259.225</v>
-      </c>
-      <c r="G136" t="n">
-        <v>267.5333333333334</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>1</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>271</v>
-      </c>
-      <c r="C137" t="n">
-        <v>271</v>
-      </c>
-      <c r="D137" t="n">
-        <v>271</v>
-      </c>
-      <c r="E137" t="n">
-        <v>271</v>
-      </c>
-      <c r="F137" t="n">
-        <v>2536.4422</v>
-      </c>
-      <c r="G137" t="n">
-        <v>267.65</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>1</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>271</v>
-      </c>
-      <c r="C138" t="n">
-        <v>271</v>
-      </c>
-      <c r="D138" t="n">
-        <v>271</v>
-      </c>
-      <c r="E138" t="n">
-        <v>271</v>
-      </c>
-      <c r="F138" t="n">
-        <v>4002.26</v>
-      </c>
-      <c r="G138" t="n">
-        <v>267.7666666666667</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>270</v>
-      </c>
-      <c r="C139" t="n">
-        <v>269</v>
-      </c>
-      <c r="D139" t="n">
-        <v>270</v>
-      </c>
-      <c r="E139" t="n">
-        <v>269</v>
-      </c>
-      <c r="F139" t="n">
-        <v>40496.1375</v>
-      </c>
-      <c r="G139" t="n">
-        <v>267.8333333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>268</v>
-      </c>
-      <c r="C140" t="n">
-        <v>269</v>
-      </c>
-      <c r="D140" t="n">
-        <v>269</v>
-      </c>
-      <c r="E140" t="n">
-        <v>268</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2340.4313</v>
-      </c>
-      <c r="G140" t="n">
-        <v>267.8833333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>268</v>
-      </c>
-      <c r="C141" t="n">
-        <v>268</v>
-      </c>
-      <c r="D141" t="n">
-        <v>268</v>
-      </c>
-      <c r="E141" t="n">
-        <v>268</v>
-      </c>
-      <c r="F141" t="n">
-        <v>688.1143</v>
-      </c>
-      <c r="G141" t="n">
-        <v>267.9333333333333</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>269</v>
-      </c>
-      <c r="C142" t="n">
-        <v>269</v>
-      </c>
-      <c r="D142" t="n">
-        <v>269</v>
-      </c>
-      <c r="E142" t="n">
-        <v>269</v>
-      </c>
-      <c r="F142" t="n">
-        <v>9.933</v>
-      </c>
-      <c r="G142" t="n">
-        <v>268</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>267</v>
-      </c>
-      <c r="C143" t="n">
-        <v>267</v>
-      </c>
-      <c r="D143" t="n">
-        <v>267</v>
-      </c>
-      <c r="E143" t="n">
-        <v>267</v>
-      </c>
-      <c r="F143" t="n">
-        <v>1243.8604</v>
-      </c>
-      <c r="G143" t="n">
-        <v>268.0333333333334</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>269</v>
-      </c>
-      <c r="C144" t="n">
-        <v>269</v>
-      </c>
-      <c r="D144" t="n">
-        <v>269</v>
-      </c>
-      <c r="E144" t="n">
-        <v>269</v>
-      </c>
-      <c r="F144" t="n">
-        <v>4134.7267</v>
-      </c>
-      <c r="G144" t="n">
-        <v>268.1166666666667</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>270</v>
-      </c>
-      <c r="C145" t="n">
-        <v>270</v>
-      </c>
-      <c r="D145" t="n">
-        <v>270</v>
-      </c>
-      <c r="E145" t="n">
-        <v>270</v>
-      </c>
-      <c r="F145" t="n">
-        <v>193.5037</v>
-      </c>
-      <c r="G145" t="n">
-        <v>268.25</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>268</v>
-      </c>
-      <c r="C146" t="n">
-        <v>269</v>
-      </c>
-      <c r="D146" t="n">
-        <v>269</v>
-      </c>
-      <c r="E146" t="n">
-        <v>268</v>
-      </c>
-      <c r="F146" t="n">
-        <v>11876.7145</v>
-      </c>
-      <c r="G146" t="n">
-        <v>268.3666666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>270</v>
-      </c>
-      <c r="C147" t="n">
-        <v>270</v>
-      </c>
-      <c r="D147" t="n">
-        <v>270</v>
-      </c>
-      <c r="E147" t="n">
-        <v>270</v>
-      </c>
-      <c r="F147" t="n">
-        <v>6135.2776</v>
-      </c>
-      <c r="G147" t="n">
-        <v>268.5</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="n">
-        <v>270</v>
-      </c>
-      <c r="C148" t="n">
-        <v>270</v>
-      </c>
-      <c r="D148" t="n">
-        <v>270</v>
-      </c>
-      <c r="E148" t="n">
-        <v>270</v>
-      </c>
-      <c r="F148" t="n">
-        <v>6135.2776</v>
-      </c>
-      <c r="G148" t="n">
-        <v>268.65</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="n">
-        <v>272</v>
-      </c>
-      <c r="C149" t="n">
-        <v>272</v>
-      </c>
-      <c r="D149" t="n">
-        <v>272</v>
-      </c>
-      <c r="E149" t="n">
-        <v>272</v>
-      </c>
-      <c r="F149" t="n">
-        <v>4311.9338</v>
-      </c>
-      <c r="G149" t="n">
-        <v>268.8166666666667</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="n">
-        <v>271</v>
-      </c>
-      <c r="C150" t="n">
-        <v>272</v>
-      </c>
-      <c r="D150" t="n">
-        <v>272</v>
-      </c>
-      <c r="E150" t="n">
-        <v>271</v>
-      </c>
-      <c r="F150" t="n">
-        <v>3167.074</v>
-      </c>
-      <c r="G150" t="n">
-        <v>268.9833333333333</v>
-      </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="n">
-        <v>271</v>
-      </c>
-      <c r="C151" t="n">
-        <v>271</v>
-      </c>
-      <c r="D151" t="n">
-        <v>271</v>
-      </c>
-      <c r="E151" t="n">
-        <v>271</v>
-      </c>
-      <c r="F151" t="n">
-        <v>415.6821</v>
-      </c>
-      <c r="G151" t="n">
-        <v>269.1333333333333</v>
-      </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="n">
-        <v>271</v>
-      </c>
-      <c r="C152" t="n">
-        <v>270</v>
-      </c>
-      <c r="D152" t="n">
-        <v>271</v>
-      </c>
-      <c r="E152" t="n">
-        <v>270</v>
-      </c>
-      <c r="F152" t="n">
-        <v>216.7661</v>
-      </c>
-      <c r="G152" t="n">
-        <v>269.2666666666667</v>
-      </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="n">
-        <v>271</v>
-      </c>
-      <c r="C153" t="n">
-        <v>271</v>
-      </c>
-      <c r="D153" t="n">
-        <v>271</v>
-      </c>
-      <c r="E153" t="n">
-        <v>271</v>
-      </c>
-      <c r="F153" t="n">
-        <v>1791.4531</v>
-      </c>
-      <c r="G153" t="n">
-        <v>269.4166666666667</v>
-      </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="n">
-        <v>271</v>
-      </c>
-      <c r="C154" t="n">
-        <v>271</v>
-      </c>
-      <c r="D154" t="n">
-        <v>271</v>
-      </c>
-      <c r="E154" t="n">
-        <v>271</v>
-      </c>
-      <c r="F154" t="n">
-        <v>789.789</v>
-      </c>
-      <c r="G154" t="n">
-        <v>269.5666666666667</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="n">
-        <v>271</v>
-      </c>
-      <c r="C155" t="n">
-        <v>271</v>
-      </c>
-      <c r="D155" t="n">
-        <v>271</v>
-      </c>
-      <c r="E155" t="n">
-        <v>271</v>
-      </c>
-      <c r="F155" t="n">
-        <v>1184.6836</v>
-      </c>
-      <c r="G155" t="n">
-        <v>269.7</v>
-      </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="n">
-        <v>271</v>
-      </c>
-      <c r="C156" t="n">
-        <v>271</v>
-      </c>
-      <c r="D156" t="n">
-        <v>271</v>
-      </c>
-      <c r="E156" t="n">
-        <v>271</v>
-      </c>
-      <c r="F156" t="n">
-        <v>1184.6837</v>
-      </c>
-      <c r="G156" t="n">
-        <v>269.85</v>
-      </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="n">
-        <v>273</v>
-      </c>
-      <c r="C157" t="n">
-        <v>273</v>
-      </c>
-      <c r="D157" t="n">
-        <v>273</v>
-      </c>
-      <c r="E157" t="n">
-        <v>273</v>
-      </c>
-      <c r="F157" t="n">
-        <v>9325.7348</v>
-      </c>
-      <c r="G157" t="n">
-        <v>270.0333333333334</v>
-      </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="n">
-        <v>274</v>
-      </c>
-      <c r="C158" t="n">
-        <v>274</v>
-      </c>
-      <c r="D158" t="n">
-        <v>274</v>
-      </c>
-      <c r="E158" t="n">
-        <v>274</v>
-      </c>
-      <c r="F158" t="n">
-        <v>10109.6557</v>
-      </c>
-      <c r="G158" t="n">
-        <v>270.2333333333333</v>
-      </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="n">
-        <v>274</v>
-      </c>
-      <c r="C159" t="n">
-        <v>274</v>
-      </c>
-      <c r="D159" t="n">
-        <v>274</v>
-      </c>
-      <c r="E159" t="n">
-        <v>274</v>
-      </c>
-      <c r="F159" t="n">
-        <v>1061.0857</v>
-      </c>
-      <c r="G159" t="n">
-        <v>270.4166666666667</v>
-      </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="n">
-        <v>274</v>
-      </c>
-      <c r="C160" t="n">
-        <v>274</v>
-      </c>
-      <c r="D160" t="n">
-        <v>274</v>
-      </c>
-      <c r="E160" t="n">
-        <v>274</v>
-      </c>
-      <c r="F160" t="n">
-        <v>1168.6986</v>
-      </c>
-      <c r="G160" t="n">
-        <v>270.6</v>
-      </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="n">
-        <v>275</v>
-      </c>
-      <c r="C161" t="n">
-        <v>275</v>
-      </c>
-      <c r="D161" t="n">
-        <v>275</v>
-      </c>
-      <c r="E161" t="n">
-        <v>275</v>
-      </c>
-      <c r="F161" t="n">
-        <v>3658.448</v>
-      </c>
-      <c r="G161" t="n">
-        <v>270.7833333333334</v>
-      </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="n">
-        <v>275</v>
-      </c>
-      <c r="C162" t="n">
-        <v>275</v>
-      </c>
-      <c r="D162" t="n">
-        <v>275</v>
-      </c>
-      <c r="E162" t="n">
-        <v>273</v>
-      </c>
-      <c r="F162" t="n">
-        <v>10798.0704</v>
-      </c>
-      <c r="G162" t="n">
-        <v>271</v>
-      </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="n">
-        <v>275</v>
-      </c>
-      <c r="C163" t="n">
-        <v>274</v>
-      </c>
-      <c r="D163" t="n">
-        <v>275</v>
-      </c>
-      <c r="E163" t="n">
-        <v>274</v>
-      </c>
-      <c r="F163" t="n">
-        <v>948</v>
-      </c>
-      <c r="G163" t="n">
-        <v>271.1833333333333</v>
-      </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="n">
-        <v>276</v>
-      </c>
-      <c r="C164" t="n">
-        <v>276</v>
-      </c>
-      <c r="D164" t="n">
-        <v>276</v>
-      </c>
-      <c r="E164" t="n">
-        <v>276</v>
-      </c>
-      <c r="F164" t="n">
-        <v>10</v>
-      </c>
-      <c r="G164" t="n">
-        <v>271.3333333333333</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="n">
-        <v>275</v>
-      </c>
-      <c r="C165" t="n">
-        <v>274</v>
-      </c>
-      <c r="D165" t="n">
-        <v>275</v>
-      </c>
-      <c r="E165" t="n">
-        <v>273</v>
-      </c>
-      <c r="F165" t="n">
-        <v>21531.9138</v>
-      </c>
-      <c r="G165" t="n">
-        <v>271.4166666666667</v>
-      </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="n">
-        <v>275</v>
-      </c>
-      <c r="C166" t="n">
-        <v>275</v>
-      </c>
-      <c r="D166" t="n">
-        <v>275</v>
-      </c>
-      <c r="E166" t="n">
-        <v>274</v>
-      </c>
-      <c r="F166" t="n">
-        <v>27936.0819</v>
-      </c>
-      <c r="G166" t="n">
-        <v>271.5166666666667</v>
-      </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="n">
-        <v>275</v>
-      </c>
-      <c r="C167" t="n">
-        <v>276</v>
-      </c>
-      <c r="D167" t="n">
-        <v>277</v>
-      </c>
-      <c r="E167" t="n">
-        <v>275</v>
-      </c>
-      <c r="F167" t="n">
-        <v>15634.8711</v>
-      </c>
-      <c r="G167" t="n">
-        <v>271.6333333333333</v>
-      </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="n">
-        <v>276</v>
-      </c>
-      <c r="C168" t="n">
-        <v>277</v>
-      </c>
-      <c r="D168" t="n">
-        <v>277</v>
-      </c>
-      <c r="E168" t="n">
-        <v>275</v>
-      </c>
-      <c r="F168" t="n">
-        <v>15914.54930866426</v>
-      </c>
-      <c r="G168" t="n">
-        <v>271.75</v>
-      </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="n">
-        <v>276</v>
-      </c>
-      <c r="C169" t="n">
-        <v>276</v>
-      </c>
-      <c r="D169" t="n">
-        <v>277</v>
-      </c>
-      <c r="E169" t="n">
-        <v>276</v>
-      </c>
-      <c r="F169" t="n">
-        <v>957.5409</v>
-      </c>
-      <c r="G169" t="n">
-        <v>271.8666666666667</v>
-      </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="n">
-        <v>276</v>
-      </c>
-      <c r="C170" t="n">
-        <v>277</v>
-      </c>
-      <c r="D170" t="n">
-        <v>277</v>
-      </c>
-      <c r="E170" t="n">
-        <v>276</v>
-      </c>
-      <c r="F170" t="n">
-        <v>6476.2987</v>
-      </c>
-      <c r="G170" t="n">
-        <v>271.9833333333333</v>
-      </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="n">
-        <v>277</v>
-      </c>
-      <c r="C171" t="n">
-        <v>277</v>
-      </c>
-      <c r="D171" t="n">
-        <v>277</v>
-      </c>
-      <c r="E171" t="n">
-        <v>277</v>
-      </c>
-      <c r="F171" t="n">
-        <v>27714.8797</v>
-      </c>
-      <c r="G171" t="n">
-        <v>272.0833333333333</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="n">
-        <v>278</v>
-      </c>
-      <c r="C172" t="n">
-        <v>277</v>
-      </c>
-      <c r="D172" t="n">
-        <v>278</v>
-      </c>
-      <c r="E172" t="n">
-        <v>277</v>
-      </c>
-      <c r="F172" t="n">
-        <v>28679.55582230216</v>
-      </c>
-      <c r="G172" t="n">
-        <v>272.1666666666667</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>276</v>
-      </c>
-      <c r="C173" t="n">
-        <v>278</v>
-      </c>
-      <c r="D173" t="n">
-        <v>278</v>
-      </c>
-      <c r="E173" t="n">
-        <v>276</v>
-      </c>
-      <c r="F173" t="n">
-        <v>2760.129977697842</v>
-      </c>
-      <c r="G173" t="n">
-        <v>272.2666666666667</v>
-      </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>278</v>
-      </c>
-      <c r="C174" t="n">
-        <v>279</v>
-      </c>
-      <c r="D174" t="n">
-        <v>279</v>
-      </c>
-      <c r="E174" t="n">
-        <v>278</v>
-      </c>
-      <c r="F174" t="n">
-        <v>12326.4634</v>
-      </c>
-      <c r="G174" t="n">
-        <v>272.3833333333333</v>
-      </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>278</v>
-      </c>
-      <c r="C175" t="n">
-        <v>280</v>
-      </c>
-      <c r="D175" t="n">
-        <v>280</v>
-      </c>
-      <c r="E175" t="n">
-        <v>278</v>
-      </c>
-      <c r="F175" t="n">
-        <v>34174.11570464286</v>
-      </c>
-      <c r="G175" t="n">
-        <v>272.55</v>
-      </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>280</v>
-      </c>
-      <c r="C176" t="n">
-        <v>280</v>
-      </c>
-      <c r="D176" t="n">
-        <v>280</v>
-      </c>
-      <c r="E176" t="n">
-        <v>280</v>
-      </c>
-      <c r="F176" t="n">
-        <v>8361.1499</v>
-      </c>
-      <c r="G176" t="n">
-        <v>272.7166666666666</v>
-      </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>280</v>
-      </c>
-      <c r="C177" t="n">
-        <v>280</v>
-      </c>
-      <c r="D177" t="n">
-        <v>280</v>
-      </c>
-      <c r="E177" t="n">
-        <v>280</v>
-      </c>
-      <c r="F177" t="n">
-        <v>4656.766</v>
-      </c>
-      <c r="G177" t="n">
-        <v>272.9</v>
-      </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -7142,7 +7144,7 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
@@ -7177,7 +7179,7 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
@@ -13057,7 +13059,7 @@
         <v>0</v>
       </c>
       <c r="I347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
@@ -15469,17 +15471,13 @@
         <v>263.1833333333333</v>
       </c>
       <c r="H416" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
       </c>
-      <c r="J416" t="n">
-        <v>262</v>
-      </c>
-      <c r="K416" t="n">
-        <v>262</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr"/>
       <c r="M416" t="n">
         <v>1</v>
@@ -15514,14 +15512,8 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>262</v>
-      </c>
-      <c r="L417" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K417" t="inlineStr"/>
+      <c r="L417" t="inlineStr"/>
       <c r="M417" t="n">
         <v>1</v>
       </c>
@@ -15555,14 +15547,8 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>262</v>
-      </c>
-      <c r="L418" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K418" t="inlineStr"/>
+      <c r="L418" t="inlineStr"/>
       <c r="M418" t="n">
         <v>1</v>
       </c>
@@ -15596,14 +15582,8 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>262</v>
-      </c>
-      <c r="L419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K419" t="inlineStr"/>
+      <c r="L419" t="inlineStr"/>
       <c r="M419" t="n">
         <v>1</v>
       </c>
@@ -15637,14 +15617,8 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>262</v>
-      </c>
-      <c r="L420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K420" t="inlineStr"/>
+      <c r="L420" t="inlineStr"/>
       <c r="M420" t="n">
         <v>1</v>
       </c>
@@ -15672,22 +15646,14 @@
         <v>262.8666666666667</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I421" t="n">
         <v>0</v>
       </c>
-      <c r="J421" t="n">
-        <v>260</v>
-      </c>
-      <c r="K421" t="n">
-        <v>262</v>
-      </c>
-      <c r="L421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
+      <c r="L421" t="inlineStr"/>
       <c r="M421" t="n">
         <v>1</v>
       </c>
@@ -15715,22 +15681,14 @@
         <v>262.7833333333334</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I422" t="n">
         <v>0</v>
       </c>
-      <c r="J422" t="n">
-        <v>260</v>
-      </c>
-      <c r="K422" t="n">
-        <v>262</v>
-      </c>
-      <c r="L422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
+      <c r="L422" t="inlineStr"/>
       <c r="M422" t="n">
         <v>1</v>
       </c>
@@ -15758,22 +15716,14 @@
         <v>262.7166666666666</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
       </c>
-      <c r="J423" t="n">
-        <v>261</v>
-      </c>
-      <c r="K423" t="n">
-        <v>262</v>
-      </c>
-      <c r="L423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
+      <c r="L423" t="inlineStr"/>
       <c r="M423" t="n">
         <v>1</v>
       </c>
@@ -15801,22 +15751,14 @@
         <v>262.65</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
       </c>
-      <c r="J424" t="n">
-        <v>262</v>
-      </c>
-      <c r="K424" t="n">
-        <v>262</v>
-      </c>
-      <c r="L424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
+      <c r="L424" t="inlineStr"/>
       <c r="M424" t="n">
         <v>1</v>
       </c>
@@ -15844,22 +15786,14 @@
         <v>262.5833333333333</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I425" t="n">
         <v>0</v>
       </c>
-      <c r="J425" t="n">
-        <v>261</v>
-      </c>
-      <c r="K425" t="n">
-        <v>262</v>
-      </c>
-      <c r="L425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
+      <c r="L425" t="inlineStr"/>
       <c r="M425" t="n">
         <v>1</v>
       </c>
@@ -15887,22 +15821,14 @@
         <v>262.5333333333334</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
       </c>
-      <c r="J426" t="n">
-        <v>261</v>
-      </c>
-      <c r="K426" t="n">
-        <v>262</v>
-      </c>
-      <c r="L426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
+      <c r="L426" t="inlineStr"/>
       <c r="M426" t="n">
         <v>1</v>
       </c>
@@ -15930,22 +15856,14 @@
         <v>262.4666666666666</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
       </c>
-      <c r="J427" t="n">
-        <v>261</v>
-      </c>
-      <c r="K427" t="n">
-        <v>262</v>
-      </c>
-      <c r="L427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
+      <c r="L427" t="inlineStr"/>
       <c r="M427" t="n">
         <v>1</v>
       </c>
@@ -15973,22 +15891,14 @@
         <v>262.4166666666667</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I428" t="n">
         <v>0</v>
       </c>
-      <c r="J428" t="n">
-        <v>261</v>
-      </c>
-      <c r="K428" t="n">
-        <v>262</v>
-      </c>
-      <c r="L428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
+      <c r="L428" t="inlineStr"/>
       <c r="M428" t="n">
         <v>1</v>
       </c>
@@ -16016,22 +15926,14 @@
         <v>262.35</v>
       </c>
       <c r="H429" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I429" t="n">
         <v>0</v>
       </c>
-      <c r="J429" t="n">
-        <v>261</v>
-      </c>
-      <c r="K429" t="n">
-        <v>262</v>
-      </c>
-      <c r="L429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
+      <c r="L429" t="inlineStr"/>
       <c r="M429" t="n">
         <v>1</v>
       </c>
@@ -16059,22 +15961,14 @@
         <v>262.35</v>
       </c>
       <c r="H430" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I430" t="n">
         <v>0</v>
       </c>
-      <c r="J430" t="n">
-        <v>261</v>
-      </c>
-      <c r="K430" t="n">
-        <v>262</v>
-      </c>
-      <c r="L430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
+      <c r="L430" t="inlineStr"/>
       <c r="M430" t="n">
         <v>1</v>
       </c>
@@ -16102,22 +15996,14 @@
         <v>262.3166666666667</v>
       </c>
       <c r="H431" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
       </c>
-      <c r="J431" t="n">
-        <v>261</v>
-      </c>
-      <c r="K431" t="n">
-        <v>262</v>
-      </c>
-      <c r="L431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
+      <c r="L431" t="inlineStr"/>
       <c r="M431" t="n">
         <v>1</v>
       </c>
@@ -16145,22 +16031,14 @@
         <v>262.2666666666667</v>
       </c>
       <c r="H432" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
       </c>
-      <c r="J432" t="n">
-        <v>261</v>
-      </c>
-      <c r="K432" t="n">
-        <v>262</v>
-      </c>
-      <c r="L432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
+      <c r="L432" t="inlineStr"/>
       <c r="M432" t="n">
         <v>1</v>
       </c>
@@ -16188,22 +16066,14 @@
         <v>262.2333333333333</v>
       </c>
       <c r="H433" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
       </c>
-      <c r="J433" t="n">
-        <v>261</v>
-      </c>
-      <c r="K433" t="n">
-        <v>262</v>
-      </c>
-      <c r="L433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
+      <c r="L433" t="inlineStr"/>
       <c r="M433" t="n">
         <v>1</v>
       </c>
@@ -16231,22 +16101,14 @@
         <v>262.1833333333333</v>
       </c>
       <c r="H434" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I434" t="n">
         <v>0</v>
       </c>
-      <c r="J434" t="n">
-        <v>261</v>
-      </c>
-      <c r="K434" t="n">
-        <v>262</v>
-      </c>
-      <c r="L434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
+      <c r="L434" t="inlineStr"/>
       <c r="M434" t="n">
         <v>1</v>
       </c>
@@ -16274,22 +16136,14 @@
         <v>262.1333333333333</v>
       </c>
       <c r="H435" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I435" t="n">
         <v>0</v>
       </c>
-      <c r="J435" t="n">
-        <v>261</v>
-      </c>
-      <c r="K435" t="n">
-        <v>262</v>
-      </c>
-      <c r="L435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
+      <c r="L435" t="inlineStr"/>
       <c r="M435" t="n">
         <v>1</v>
       </c>
@@ -16317,22 +16171,14 @@
         <v>262.1</v>
       </c>
       <c r="H436" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I436" t="n">
         <v>0</v>
       </c>
-      <c r="J436" t="n">
-        <v>262</v>
-      </c>
-      <c r="K436" t="n">
-        <v>262</v>
-      </c>
-      <c r="L436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
+      <c r="L436" t="inlineStr"/>
       <c r="M436" t="n">
         <v>1</v>
       </c>
@@ -16360,22 +16206,14 @@
         <v>262.05</v>
       </c>
       <c r="H437" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
       </c>
-      <c r="J437" t="n">
-        <v>261</v>
-      </c>
-      <c r="K437" t="n">
-        <v>262</v>
-      </c>
-      <c r="L437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
+      <c r="L437" t="inlineStr"/>
       <c r="M437" t="n">
         <v>1</v>
       </c>
@@ -16403,22 +16241,14 @@
         <v>261.9833333333333</v>
       </c>
       <c r="H438" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I438" t="n">
         <v>0</v>
       </c>
-      <c r="J438" t="n">
-        <v>261</v>
-      </c>
-      <c r="K438" t="n">
-        <v>262</v>
-      </c>
-      <c r="L438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
+      <c r="L438" t="inlineStr"/>
       <c r="M438" t="n">
         <v>1</v>
       </c>
@@ -16446,22 +16276,14 @@
         <v>261.9666666666666</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
       </c>
-      <c r="J439" t="n">
-        <v>262</v>
-      </c>
-      <c r="K439" t="n">
-        <v>262</v>
-      </c>
-      <c r="L439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
+      <c r="L439" t="inlineStr"/>
       <c r="M439" t="n">
         <v>1</v>
       </c>
@@ -16489,22 +16311,14 @@
         <v>261.9666666666666</v>
       </c>
       <c r="H440" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I440" t="n">
         <v>0</v>
       </c>
-      <c r="J440" t="n">
-        <v>263</v>
-      </c>
-      <c r="K440" t="n">
-        <v>262</v>
-      </c>
-      <c r="L440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
+      <c r="L440" t="inlineStr"/>
       <c r="M440" t="n">
         <v>1</v>
       </c>
@@ -16532,22 +16346,14 @@
         <v>261.9666666666666</v>
       </c>
       <c r="H441" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I441" t="n">
         <v>0</v>
       </c>
-      <c r="J441" t="n">
-        <v>263</v>
-      </c>
-      <c r="K441" t="n">
-        <v>262</v>
-      </c>
-      <c r="L441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
+      <c r="L441" t="inlineStr"/>
       <c r="M441" t="n">
         <v>1</v>
       </c>
@@ -16575,22 +16381,14 @@
         <v>261.95</v>
       </c>
       <c r="H442" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
       </c>
-      <c r="J442" t="n">
-        <v>263</v>
-      </c>
-      <c r="K442" t="n">
-        <v>262</v>
-      </c>
-      <c r="L442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
+      <c r="L442" t="inlineStr"/>
       <c r="M442" t="n">
         <v>1</v>
       </c>
@@ -16624,14 +16422,8 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>262</v>
-      </c>
-      <c r="L443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K443" t="inlineStr"/>
+      <c r="L443" t="inlineStr"/>
       <c r="M443" t="n">
         <v>1</v>
       </c>
@@ -16665,14 +16457,8 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>262</v>
-      </c>
-      <c r="L444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K444" t="inlineStr"/>
+      <c r="L444" t="inlineStr"/>
       <c r="M444" t="n">
         <v>1</v>
       </c>
@@ -16706,14 +16492,8 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>262</v>
-      </c>
-      <c r="L445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K445" t="inlineStr"/>
+      <c r="L445" t="inlineStr"/>
       <c r="M445" t="n">
         <v>1</v>
       </c>
@@ -16747,14 +16527,8 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>262</v>
-      </c>
-      <c r="L446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K446" t="inlineStr"/>
+      <c r="L446" t="inlineStr"/>
       <c r="M446" t="n">
         <v>1</v>
       </c>
@@ -16788,14 +16562,8 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>262</v>
-      </c>
-      <c r="L447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K447" t="inlineStr"/>
+      <c r="L447" t="inlineStr"/>
       <c r="M447" t="n">
         <v>1</v>
       </c>
@@ -16829,14 +16597,8 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>262</v>
-      </c>
-      <c r="L448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K448" t="inlineStr"/>
+      <c r="L448" t="inlineStr"/>
       <c r="M448" t="n">
         <v>1</v>
       </c>
@@ -16870,14 +16632,8 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>262</v>
-      </c>
-      <c r="L449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K449" t="inlineStr"/>
+      <c r="L449" t="inlineStr"/>
       <c r="M449" t="n">
         <v>1</v>
       </c>
@@ -16911,14 +16667,8 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>262</v>
-      </c>
-      <c r="L450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K450" t="inlineStr"/>
+      <c r="L450" t="inlineStr"/>
       <c r="M450" t="n">
         <v>1</v>
       </c>
@@ -16952,14 +16702,8 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>262</v>
-      </c>
-      <c r="L451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K451" t="inlineStr"/>
+      <c r="L451" t="inlineStr"/>
       <c r="M451" t="n">
         <v>1</v>
       </c>
@@ -16993,14 +16737,8 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>262</v>
-      </c>
-      <c r="L452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K452" t="inlineStr"/>
+      <c r="L452" t="inlineStr"/>
       <c r="M452" t="n">
         <v>1</v>
       </c>
@@ -17034,14 +16772,8 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>262</v>
-      </c>
-      <c r="L453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K453" t="inlineStr"/>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="n">
         <v>1</v>
       </c>
@@ -17075,14 +16807,8 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>262</v>
-      </c>
-      <c r="L454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K454" t="inlineStr"/>
+      <c r="L454" t="inlineStr"/>
       <c r="M454" t="n">
         <v>1</v>
       </c>
@@ -17116,14 +16842,8 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>262</v>
-      </c>
-      <c r="L455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K455" t="inlineStr"/>
+      <c r="L455" t="inlineStr"/>
       <c r="M455" t="n">
         <v>1</v>
       </c>
@@ -17157,14 +16877,8 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>262</v>
-      </c>
-      <c r="L456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K456" t="inlineStr"/>
+      <c r="L456" t="inlineStr"/>
       <c r="M456" t="n">
         <v>1</v>
       </c>
@@ -17198,14 +16912,8 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>262</v>
-      </c>
-      <c r="L457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K457" t="inlineStr"/>
+      <c r="L457" t="inlineStr"/>
       <c r="M457" t="n">
         <v>1</v>
       </c>
@@ -17239,14 +16947,8 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>262</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K458" t="inlineStr"/>
+      <c r="L458" t="inlineStr"/>
       <c r="M458" t="n">
         <v>1</v>
       </c>
@@ -17280,14 +16982,8 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>262</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K459" t="inlineStr"/>
+      <c r="L459" t="inlineStr"/>
       <c r="M459" t="n">
         <v>1</v>
       </c>
@@ -17321,14 +17017,8 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>262</v>
-      </c>
-      <c r="L460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K460" t="inlineStr"/>
+      <c r="L460" t="inlineStr"/>
       <c r="M460" t="n">
         <v>1</v>
       </c>
@@ -17362,14 +17052,8 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>262</v>
-      </c>
-      <c r="L461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K461" t="inlineStr"/>
+      <c r="L461" t="inlineStr"/>
       <c r="M461" t="n">
         <v>1</v>
       </c>
@@ -17403,14 +17087,8 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>262</v>
-      </c>
-      <c r="L462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K462" t="inlineStr"/>
+      <c r="L462" t="inlineStr"/>
       <c r="M462" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-16 BackTest BAT.xlsx
+++ b/BackTest/2019-10-16 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>135680.9618130029</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>135285.4095130029</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>259</v>
+      </c>
+      <c r="J3" t="n">
+        <v>259</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>130409.4375130029</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>258</v>
+      </c>
+      <c r="J4" t="n">
+        <v>259</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -550,15 +562,19 @@
         <v>130409.4375130029</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>257</v>
       </c>
       <c r="J5" t="n">
-        <v>257</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -587,17 +603,17 @@
         <v>151743.8199130029</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>257</v>
       </c>
       <c r="J6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -628,13 +644,13 @@
         <v>150966.7898130029</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>258</v>
       </c>
       <c r="J7" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -669,13 +685,13 @@
         <v>150869.8666130029</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>257</v>
       </c>
       <c r="J8" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -710,11 +726,13 @@
         <v>150869.8666130029</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>256</v>
+      </c>
       <c r="J9" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -749,11 +767,13 @@
         <v>150869.8666130029</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>256</v>
+      </c>
       <c r="J10" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -788,11 +808,13 @@
         <v>151045.6029130029</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>256</v>
+      </c>
       <c r="J11" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -831,7 +853,7 @@
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -870,7 +892,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -905,13 +927,13 @@
         <v>151055.6029130029</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>257</v>
       </c>
       <c r="J14" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -946,11 +968,13 @@
         <v>150399.7380130029</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>258</v>
+      </c>
       <c r="J15" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -985,11 +1009,13 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>256</v>
+      </c>
       <c r="J16" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1024,11 +1050,13 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>255</v>
+      </c>
       <c r="J17" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1063,11 +1091,13 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>255</v>
+      </c>
       <c r="J18" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1102,11 +1132,13 @@
         <v>150164.3655130028</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>255</v>
+      </c>
       <c r="J19" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1141,13 +1173,13 @@
         <v>150167.5631130029</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
         <v>256</v>
       </c>
       <c r="J20" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1182,13 +1214,13 @@
         <v>145991.9663130029</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>258</v>
       </c>
       <c r="J21" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1223,11 +1255,13 @@
         <v>144724.5034130029</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>257</v>
+      </c>
       <c r="J22" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1262,13 +1296,13 @@
         <v>147143.9514130029</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
         <v>256</v>
       </c>
       <c r="J23" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1303,11 +1337,13 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>257</v>
+      </c>
       <c r="J24" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1342,13 +1378,13 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
         <v>258</v>
       </c>
       <c r="J25" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1383,13 +1419,13 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
         <v>258</v>
       </c>
       <c r="J26" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1424,13 +1460,13 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I27" t="n">
         <v>258</v>
       </c>
       <c r="J27" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1465,13 +1501,13 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" t="n">
         <v>258</v>
       </c>
       <c r="J28" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1506,13 +1542,13 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
         <v>259</v>
       </c>
       <c r="J29" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1547,13 +1583,13 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
         <v>259</v>
       </c>
       <c r="J30" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1588,13 +1624,13 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>260</v>
       </c>
       <c r="J31" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1629,13 +1665,11 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
-      </c>
-      <c r="I32" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1670,11 +1704,13 @@
         <v>147639.9036130029</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>260</v>
+      </c>
       <c r="J33" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1709,11 +1745,13 @@
         <v>151116.8629130028</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
+        <v>258</v>
+      </c>
       <c r="J34" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1748,11 +1786,13 @@
         <v>151116.8629130028</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>260</v>
+      </c>
       <c r="J35" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1787,11 +1827,13 @@
         <v>151116.8629130028</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>260</v>
+      </c>
       <c r="J36" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1826,11 +1868,13 @@
         <v>141116.8629130028</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>260</v>
+      </c>
       <c r="J37" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1865,11 +1909,13 @@
         <v>151107.7244514644</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>259</v>
+      </c>
       <c r="J38" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1908,7 +1954,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1943,11 +1989,13 @@
         <v>157007.7244514644</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>260</v>
+      </c>
       <c r="J40" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1986,7 +2034,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2025,7 +2073,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2064,7 +2112,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2103,7 +2151,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2142,7 +2190,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2181,7 +2229,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2220,7 +2268,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2259,7 +2307,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2298,7 +2346,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2337,7 +2385,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2376,7 +2424,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2415,7 +2463,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2454,7 +2502,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2493,7 +2541,7 @@
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
@@ -2532,7 +2580,7 @@
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -2571,7 +2619,7 @@
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -2610,7 +2658,7 @@
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2649,7 +2697,7 @@
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2688,7 +2736,7 @@
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2727,7 +2775,7 @@
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2766,7 +2814,7 @@
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2805,7 +2853,7 @@
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2844,7 +2892,7 @@
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2879,11 +2927,13 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
+        <v>265</v>
+      </c>
       <c r="J64" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2918,11 +2968,13 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>265</v>
+      </c>
       <c r="J65" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2957,11 +3009,13 @@
         <v>269952.7780774019</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>265</v>
+      </c>
       <c r="J66" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3000,7 +3054,7 @@
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3039,7 +3093,7 @@
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3078,7 +3132,7 @@
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3117,7 +3171,7 @@
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3156,7 +3210,7 @@
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3195,7 +3249,7 @@
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3234,7 +3288,7 @@
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3273,7 +3327,7 @@
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3312,7 +3366,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3351,7 +3405,7 @@
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3386,11 +3440,11 @@
         <v>248890.4311774019</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3429,7 +3483,7 @@
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3468,7 +3522,7 @@
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3507,7 +3561,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3546,7 +3600,7 @@
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3585,7 +3639,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3620,11 +3674,11 @@
         <v>250315.2760774019</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3659,11 +3713,11 @@
         <v>250315.2760774019</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3698,11 +3752,11 @@
         <v>266039.0378774019</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3741,7 +3795,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3780,7 +3834,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3819,7 +3873,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3858,7 +3912,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3897,7 +3951,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3936,7 +3990,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3975,7 +4029,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4014,7 +4068,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4053,7 +4107,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4092,7 +4146,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4131,7 +4185,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4170,7 +4224,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4209,7 +4263,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4248,7 +4302,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4287,7 +4341,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4326,7 +4380,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4365,7 +4419,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4404,7 +4458,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4443,7 +4497,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4482,7 +4536,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4521,7 +4575,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4560,7 +4614,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4599,7 +4653,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4638,7 +4692,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4677,7 +4731,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4716,7 +4770,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4751,11 +4805,11 @@
         <v>272042.5624774019</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4790,11 +4844,11 @@
         <v>272736.8785774019</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4833,7 +4887,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4872,7 +4926,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4911,7 +4965,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4950,7 +5004,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4989,7 +5043,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5028,7 +5082,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5067,7 +5121,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5102,11 +5156,11 @@
         <v>269573.9786774018</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5141,11 +5195,11 @@
         <v>265473.9786774018</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5180,11 +5234,11 @@
         <v>265473.9786774018</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5219,11 +5273,11 @@
         <v>265473.9786774018</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5258,11 +5312,11 @@
         <v>281498.0319774018</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5297,11 +5351,11 @@
         <v>284853.3237339561</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5340,7 +5394,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5379,7 +5433,7 @@
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5418,7 +5472,7 @@
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5457,7 +5511,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5496,7 +5550,7 @@
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5535,7 +5589,7 @@
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5574,7 +5628,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5613,7 +5667,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5652,7 +5706,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5691,7 +5745,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5726,11 +5780,11 @@
         <v>271434.5969339561</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5765,11 +5819,11 @@
         <v>271446.8919339561</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5808,7 +5862,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5847,7 +5901,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5886,7 +5940,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5921,11 +5975,11 @@
         <v>275300.976733956</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5964,7 +6018,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6003,7 +6057,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6038,11 +6092,11 @@
         <v>273224.136533956</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6077,11 +6131,11 @@
         <v>273224.136533956</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6116,11 +6170,11 @@
         <v>271324.136533956</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6155,11 +6209,11 @@
         <v>272724.136533956</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6194,11 +6248,11 @@
         <v>272724.136533956</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6237,7 +6291,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6276,7 +6330,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6315,7 +6369,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6354,7 +6408,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6393,7 +6447,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6432,7 +6486,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6471,7 +6525,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6510,7 +6564,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6549,7 +6603,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6588,7 +6642,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6627,7 +6681,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6666,7 +6720,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6705,7 +6759,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6744,7 +6798,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6783,7 +6837,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6822,7 +6876,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6861,7 +6915,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6900,7 +6954,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6939,7 +6993,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6978,7 +7032,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7017,7 +7071,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7056,7 +7110,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7095,7 +7149,7 @@
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
@@ -7134,7 +7188,7 @@
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
@@ -7173,7 +7227,7 @@
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
@@ -7212,7 +7266,7 @@
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
@@ -7251,7 +7305,7 @@
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
@@ -7290,7 +7344,7 @@
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
@@ -7329,7 +7383,7 @@
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
@@ -7368,7 +7422,7 @@
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
@@ -7407,7 +7461,7 @@
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
@@ -7446,7 +7500,7 @@
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K181" t="inlineStr">
         <is>
@@ -7485,7 +7539,7 @@
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
@@ -7524,7 +7578,7 @@
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
@@ -7563,7 +7617,7 @@
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -7602,7 +7656,7 @@
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -7641,7 +7695,7 @@
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K186" t="inlineStr">
         <is>
@@ -7680,7 +7734,7 @@
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K187" t="inlineStr">
         <is>
@@ -7719,7 +7773,7 @@
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
@@ -7758,7 +7812,7 @@
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
@@ -7797,7 +7851,7 @@
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K190" t="inlineStr">
         <is>
@@ -7836,7 +7890,7 @@
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -7875,7 +7929,7 @@
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K192" t="inlineStr">
         <is>
@@ -7914,7 +7968,7 @@
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K193" t="inlineStr">
         <is>
@@ -7953,7 +8007,7 @@
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
@@ -7992,7 +8046,7 @@
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
@@ -8031,7 +8085,7 @@
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -8070,7 +8124,7 @@
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -8109,7 +8163,7 @@
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K198" t="inlineStr">
         <is>
@@ -8148,7 +8202,7 @@
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K199" t="inlineStr">
         <is>
@@ -8187,7 +8241,7 @@
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
@@ -8226,7 +8280,7 @@
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
@@ -8265,7 +8319,7 @@
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K202" t="inlineStr">
         <is>
@@ -8304,7 +8358,7 @@
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
@@ -8343,7 +8397,7 @@
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
@@ -8382,7 +8436,7 @@
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -8421,7 +8475,7 @@
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -8460,7 +8514,7 @@
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -8499,7 +8553,7 @@
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -8538,7 +8592,7 @@
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -8577,7 +8631,7 @@
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -8616,7 +8670,7 @@
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -8655,7 +8709,7 @@
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -8694,7 +8748,7 @@
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -8733,7 +8787,7 @@
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -8772,7 +8826,7 @@
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -8811,7 +8865,7 @@
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -8850,7 +8904,7 @@
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -8889,7 +8943,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -8928,7 +8982,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -8967,7 +9021,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -9006,7 +9060,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -9045,7 +9099,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -9084,7 +9138,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -9123,7 +9177,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -9162,7 +9216,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -9201,7 +9255,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -9240,7 +9294,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -9275,23 +9329,21 @@
         <v>383776.6761426202</v>
       </c>
       <c r="H228" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L228" t="n">
-        <v>1.068929961089494</v>
-      </c>
-      <c r="M228" t="n">
-        <v>1.007782101167315</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -9316,11 +9368,17 @@
         <v>390252.9748426202</v>
       </c>
       <c r="H229" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>259</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9349,11 +9407,17 @@
         <v>390252.9748426202</v>
       </c>
       <c r="H230" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>259</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9382,11 +9446,17 @@
         <v>390252.9748426202</v>
       </c>
       <c r="H231" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>259</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9415,11 +9485,17 @@
         <v>393013.1048203181</v>
       </c>
       <c r="H232" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>259</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9448,11 +9524,17 @@
         <v>405339.5682203181</v>
       </c>
       <c r="H233" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>259</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9481,11 +9563,17 @@
         <v>439513.6839249609</v>
       </c>
       <c r="H234" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>259</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9514,11 +9602,17 @@
         <v>439513.6839249609</v>
       </c>
       <c r="H235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>259</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9547,11 +9641,17 @@
         <v>439513.6839249609</v>
       </c>
       <c r="H236" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>259</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9580,11 +9680,17 @@
         <v>438721.7664249609</v>
       </c>
       <c r="H237" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>259</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9613,11 +9719,17 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H238" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>259</v>
+      </c>
+      <c r="K238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9646,11 +9758,17 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H239" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>259</v>
+      </c>
+      <c r="K239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9679,11 +9797,17 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H240" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>259</v>
+      </c>
+      <c r="K240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9712,11 +9836,17 @@
         <v>431615.2486249609</v>
       </c>
       <c r="H241" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>259</v>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9745,11 +9875,17 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H242" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>259</v>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9778,11 +9914,17 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H243" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>259</v>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9811,11 +9953,17 @@
         <v>434072.6167249609</v>
       </c>
       <c r="H244" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>259</v>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9844,11 +9992,17 @@
         <v>435651.7786249609</v>
       </c>
       <c r="H245" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>259</v>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -9880,8 +10034,14 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>259</v>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -9910,15 +10070,23 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>259</v>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L247" t="n">
-        <v>1</v>
-      </c>
-      <c r="M247" t="inlineStr"/>
+        <v>1.083803088803089</v>
+      </c>
+      <c r="M247" t="n">
+        <v>1.003875968992248</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9943,7 +10111,7 @@
         <v>428391.7672249609</v>
       </c>
       <c r="H248" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -9976,7 +10144,7 @@
         <v>446637.7215249609</v>
       </c>
       <c r="H249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10009,7 +10177,7 @@
         <v>409874.7891249609</v>
       </c>
       <c r="H250" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10042,7 +10210,7 @@
         <v>433672.9346249609</v>
       </c>
       <c r="H251" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -10075,7 +10243,7 @@
         <v>432982.9622249609</v>
       </c>
       <c r="H252" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10108,7 +10276,7 @@
         <v>439158.9160249609</v>
       </c>
       <c r="H253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10141,7 +10309,7 @@
         <v>439140.4565249609</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10174,7 +10342,7 @@
         <v>438744.0932249608</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10207,7 +10375,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10240,7 +10408,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10273,7 +10441,7 @@
         <v>432925.2660249608</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10306,7 +10474,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10339,7 +10507,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10372,7 +10540,7 @@
         <v>444116.9320249608</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10405,7 +10573,7 @@
         <v>444116.9320249608</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10438,7 +10606,7 @@
         <v>440386.4938249608</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10471,7 +10639,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10504,7 +10672,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10570,7 +10738,7 @@
         <v>444029.1026249608</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10603,7 +10771,7 @@
         <v>444319.1553249608</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10636,7 +10804,7 @@
         <v>446174.0987249608</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10669,7 +10837,7 @@
         <v>444852.1997249608</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10702,7 +10870,7 @@
         <v>445591.4584249608</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -10735,7 +10903,7 @@
         <v>445591.4584249608</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -10768,7 +10936,7 @@
         <v>445591.4584249608</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10933,7 +11101,7 @@
         <v>437674.2034249608</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -10999,7 +11167,7 @@
         <v>437674.2034249608</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -11131,7 +11299,7 @@
         <v>437037.5290249608</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -11230,7 +11398,7 @@
         <v>437038.5290249608</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11263,7 +11431,7 @@
         <v>437038.5290249608</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -11296,7 +11464,7 @@
         <v>437948.8555249608</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -11329,7 +11497,7 @@
         <v>437948.8555249608</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -11362,7 +11530,7 @@
         <v>439688.6844249609</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11395,7 +11563,7 @@
         <v>439689.6844249609</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11560,7 +11728,7 @@
         <v>439142.2504249609</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -11593,7 +11761,7 @@
         <v>438844.5554249609</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -11626,7 +11794,7 @@
         <v>439431.2201249609</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -11659,7 +11827,7 @@
         <v>439431.2201249609</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -11692,7 +11860,7 @@
         <v>439431.2201249609</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -11725,7 +11893,7 @@
         <v>439352.2067249609</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11758,7 +11926,7 @@
         <v>439653.6352249609</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11791,7 +11959,7 @@
         <v>420715.3568249609</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -11923,7 +12091,7 @@
         <v>420197.8465249608</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -12055,7 +12223,7 @@
         <v>405164.3320249608</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12121,7 +12289,7 @@
         <v>405164.3320249608</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12154,7 +12322,7 @@
         <v>405147.5453249608</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12187,7 +12355,7 @@
         <v>420562.9932249609</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -12253,7 +12421,7 @@
         <v>423938.0305249609</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -12319,7 +12487,7 @@
         <v>435542.4329249609</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -12385,7 +12553,7 @@
         <v>424102.0126249609</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -12418,7 +12586,7 @@
         <v>429248.3499249609</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
@@ -12451,7 +12619,7 @@
         <v>429248.3499249609</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -12517,7 +12685,7 @@
         <v>434232.0858249608</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -12583,7 +12751,7 @@
         <v>458758.6143249609</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -12616,7 +12784,7 @@
         <v>458758.6143249609</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -12649,7 +12817,7 @@
         <v>458758.6143249609</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
       <c r="J330" t="inlineStr"/>
@@ -12682,7 +12850,7 @@
         <v>452952.3308249608</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
       <c r="J331" t="inlineStr"/>
@@ -12715,7 +12883,7 @@
         <v>452952.3308249608</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
       <c r="J332" t="inlineStr"/>
@@ -12748,7 +12916,7 @@
         <v>452952.3308249608</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
       <c r="J333" t="inlineStr"/>
@@ -12781,7 +12949,7 @@
         <v>452380.6420249608</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
       <c r="J334" t="inlineStr"/>
@@ -12814,7 +12982,7 @@
         <v>411243.6269249608</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -12847,7 +13015,7 @@
         <v>413628.5757249608</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -12880,7 +13048,7 @@
         <v>413628.5757249608</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -12913,7 +13081,7 @@
         <v>413583.7003249608</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -12946,7 +13114,7 @@
         <v>413583.7003249608</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -12979,7 +13147,7 @@
         <v>401493.7347249608</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -13045,7 +13213,7 @@
         <v>387705.7712249608</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -13078,7 +13246,7 @@
         <v>386652.3200249608</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -19293,6 +19461,6 @@
       <c r="M531" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BAT.xlsx
+++ b/BackTest/2019-10-16 BackTest BAT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>135680.9618130029</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>135285.4095130029</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>259</v>
-      </c>
-      <c r="J3" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,101 +517,89 @@
         <v>130409.4375130029</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>257</v>
+      </c>
+      <c r="C5" t="n">
+        <v>257</v>
+      </c>
+      <c r="D5" t="n">
+        <v>257</v>
+      </c>
+      <c r="E5" t="n">
+        <v>257</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3908.1518</v>
+      </c>
+      <c r="G5" t="n">
+        <v>130409.4375130029</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>257</v>
+      </c>
+      <c r="J5" t="n">
+        <v>257</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>257</v>
+      </c>
+      <c r="C6" t="n">
         <v>258</v>
       </c>
-      <c r="J4" t="n">
-        <v>259</v>
-      </c>
-      <c r="K4" t="inlineStr">
+      <c r="D6" t="n">
+        <v>258</v>
+      </c>
+      <c r="E6" t="n">
+        <v>257</v>
+      </c>
+      <c r="F6" t="n">
+        <v>21334.3824</v>
+      </c>
+      <c r="G6" t="n">
+        <v>151743.8199130029</v>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>257</v>
+      </c>
+      <c r="J6" t="n">
+        <v>257</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>257</v>
-      </c>
-      <c r="C5" t="n">
-        <v>257</v>
-      </c>
-      <c r="D5" t="n">
-        <v>257</v>
-      </c>
-      <c r="E5" t="n">
-        <v>257</v>
-      </c>
-      <c r="F5" t="n">
-        <v>3908.1518</v>
-      </c>
-      <c r="G5" t="n">
-        <v>130409.4375130029</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>257</v>
-      </c>
-      <c r="J5" t="n">
-        <v>259</v>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>257</v>
-      </c>
-      <c r="C6" t="n">
-        <v>258</v>
-      </c>
-      <c r="D6" t="n">
-        <v>258</v>
-      </c>
-      <c r="E6" t="n">
-        <v>257</v>
-      </c>
-      <c r="F6" t="n">
-        <v>21334.3824</v>
-      </c>
-      <c r="G6" t="n">
-        <v>151743.8199130029</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>257</v>
-      </c>
-      <c r="J6" t="n">
-        <v>259</v>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L6" t="n">
         <v>1</v>
       </c>
@@ -644,13 +628,11 @@
         <v>150966.7898130029</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -691,7 +673,7 @@
         <v>257</v>
       </c>
       <c r="J8" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -732,7 +714,7 @@
         <v>256</v>
       </c>
       <c r="J9" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -767,13 +749,11 @@
         <v>150869.8666130029</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -808,13 +788,11 @@
         <v>151045.6029130029</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -849,11 +827,13 @@
         <v>151045.6029130029</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>257</v>
+      </c>
       <c r="J12" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -892,7 +872,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -927,13 +907,11 @@
         <v>151055.6029130029</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
         <v>257</v>
-      </c>
-      <c r="J14" t="n">
-        <v>259</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -968,13 +946,11 @@
         <v>150399.7380130029</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
-      </c>
-      <c r="I15" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -1009,13 +985,11 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1050,13 +1024,11 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1091,13 +1063,11 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>255</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1138,7 +1108,7 @@
         <v>255</v>
       </c>
       <c r="J19" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1179,7 +1149,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1220,7 +1190,7 @@
         <v>258</v>
       </c>
       <c r="J21" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1261,7 +1231,7 @@
         <v>257</v>
       </c>
       <c r="J22" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1302,7 +1272,7 @@
         <v>256</v>
       </c>
       <c r="J23" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1343,7 +1313,7 @@
         <v>257</v>
       </c>
       <c r="J24" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1384,7 +1354,7 @@
         <v>258</v>
       </c>
       <c r="J25" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1425,7 +1395,7 @@
         <v>258</v>
       </c>
       <c r="J26" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1466,7 +1436,7 @@
         <v>258</v>
       </c>
       <c r="J27" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1507,7 +1477,7 @@
         <v>258</v>
       </c>
       <c r="J28" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1548,7 +1518,7 @@
         <v>259</v>
       </c>
       <c r="J29" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1589,7 +1559,7 @@
         <v>259</v>
       </c>
       <c r="J30" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1624,13 +1594,11 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1669,7 +1637,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1704,13 +1672,11 @@
         <v>147639.9036130029</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1745,13 +1711,11 @@
         <v>151116.8629130028</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1786,13 +1750,11 @@
         <v>151116.8629130028</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1827,13 +1789,11 @@
         <v>151116.8629130028</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1868,13 +1828,11 @@
         <v>141116.8629130028</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1909,13 +1867,11 @@
         <v>151107.7244514644</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1954,7 +1910,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1989,13 +1945,11 @@
         <v>157007.7244514644</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>260</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -2034,7 +1988,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2073,7 +2027,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2112,7 +2066,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2151,7 +2105,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2190,7 +2144,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2229,7 +2183,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2268,7 +2222,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2307,7 +2261,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2346,7 +2300,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2385,7 +2339,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2424,7 +2378,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2463,7 +2417,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2502,7 +2456,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2537,19 +2491,19 @@
         <v>249649.7974702859</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>1.033910505836576</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2579,14 +2533,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>259</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2618,14 +2566,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>259</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2657,14 +2599,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>259</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2696,14 +2632,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>259</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2735,14 +2665,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>259</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2774,14 +2698,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>259</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2810,17 +2728,11 @@
         <v>286600.6629774019</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>259</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2849,17 +2761,11 @@
         <v>277451.8419774019</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>259</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2888,17 +2794,11 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>259</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2927,19 +2827,11 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
-      </c>
-      <c r="I64" t="n">
-        <v>265</v>
-      </c>
-      <c r="J64" t="n">
-        <v>259</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2968,19 +2860,11 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>265</v>
-      </c>
-      <c r="J65" t="n">
-        <v>259</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -3009,19 +2893,11 @@
         <v>269952.7780774019</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>265</v>
-      </c>
-      <c r="J66" t="n">
-        <v>259</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -3050,17 +2926,11 @@
         <v>269952.7780774019</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>259</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -3089,17 +2959,11 @@
         <v>269235.5019774019</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>259</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -3128,17 +2992,11 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>259</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3167,17 +3025,11 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>259</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3206,17 +3058,11 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>259</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3245,17 +3091,11 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>259</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3284,17 +3124,11 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>259</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3323,17 +3157,11 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>259</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3362,17 +3190,11 @@
         <v>256322.3464774019</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>259</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3401,17 +3223,11 @@
         <v>248930.4311774019</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>259</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3440,17 +3256,11 @@
         <v>248890.4311774019</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>259</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3482,14 +3292,8 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>259</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3521,14 +3325,8 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>259</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3560,14 +3358,8 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>259</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3599,14 +3391,8 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>259</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3638,14 +3424,8 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>259</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3677,14 +3457,8 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>259</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3716,14 +3490,8 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>259</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3755,14 +3523,8 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>259</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3794,14 +3556,8 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>259</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3833,14 +3589,8 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>259</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3872,14 +3622,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>259</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3911,14 +3655,8 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>259</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3950,14 +3688,8 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>259</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3989,14 +3721,8 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>259</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -4028,14 +3754,8 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>259</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -4067,14 +3787,8 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>259</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -4106,14 +3820,8 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>259</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -4145,14 +3853,8 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>259</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -4184,14 +3886,8 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>259</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -4223,14 +3919,8 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>259</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4262,14 +3952,8 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>259</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +3985,8 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>259</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4340,14 +4018,8 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>259</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4379,14 +4051,8 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>259</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4418,14 +4084,8 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>259</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4457,14 +4117,8 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>259</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4496,14 +4150,8 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>259</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4535,14 +4183,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>259</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4574,14 +4216,8 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>259</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4613,14 +4249,8 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>259</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4652,14 +4282,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>259</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4691,14 +4315,8 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>259</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4730,14 +4348,8 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>259</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4769,14 +4381,8 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>259</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4808,14 +4414,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>259</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4847,14 +4447,8 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>259</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4886,14 +4480,8 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>259</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4925,14 +4513,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>259</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4964,14 +4546,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>259</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -5003,14 +4579,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>259</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -5042,14 +4612,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>259</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -5081,14 +4645,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>259</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -5120,14 +4678,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>259</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -5159,14 +4711,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>259</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -5198,14 +4744,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>259</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -5237,14 +4777,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>259</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5276,14 +4810,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>259</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5315,14 +4843,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>259</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5354,14 +4876,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>259</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5393,14 +4909,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>259</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5432,14 +4942,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>259</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5471,14 +4975,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>259</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5510,14 +5008,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>259</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5549,14 +5041,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>259</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5588,14 +5074,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>259</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5627,14 +5107,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>259</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5666,14 +5140,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>259</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5705,14 +5173,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>259</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5744,14 +5206,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>259</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5783,14 +5239,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>259</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5822,14 +5272,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>259</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5861,14 +5305,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>259</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5900,14 +5338,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>259</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5939,14 +5371,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>259</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5978,14 +5404,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>259</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -6017,14 +5437,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>259</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -6056,14 +5470,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>259</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -6095,14 +5503,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>259</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -6134,14 +5536,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>259</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -6173,14 +5569,8 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>259</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -6212,14 +5602,8 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="n">
-        <v>259</v>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -6251,14 +5635,8 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="n">
-        <v>259</v>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -6290,14 +5668,8 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="n">
-        <v>259</v>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -6329,14 +5701,8 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="n">
-        <v>259</v>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -6368,14 +5734,8 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="n">
-        <v>259</v>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -6407,14 +5767,8 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="n">
-        <v>259</v>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -6446,14 +5800,8 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="n">
-        <v>259</v>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -6485,14 +5833,8 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="n">
-        <v>259</v>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -6524,14 +5866,8 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="n">
-        <v>259</v>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -6563,14 +5899,8 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="n">
-        <v>259</v>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -6602,14 +5932,8 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="n">
-        <v>259</v>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -6641,14 +5965,8 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="n">
-        <v>259</v>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -6680,14 +5998,8 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="n">
-        <v>259</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6719,14 +6031,8 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="n">
-        <v>259</v>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6758,14 +6064,8 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="n">
-        <v>259</v>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6797,14 +6097,8 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="n">
-        <v>259</v>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6836,14 +6130,8 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="n">
-        <v>259</v>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6875,14 +6163,8 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="n">
-        <v>259</v>
-      </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6914,14 +6196,8 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="n">
-        <v>259</v>
-      </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6953,14 +6229,8 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="n">
-        <v>259</v>
-      </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6992,14 +6262,8 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="n">
-        <v>259</v>
-      </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -7031,14 +6295,8 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="n">
-        <v>259</v>
-      </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -7070,14 +6328,8 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="n">
-        <v>259</v>
-      </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -7109,14 +6361,8 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="n">
-        <v>259</v>
-      </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -7148,14 +6394,8 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="n">
-        <v>259</v>
-      </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -7187,14 +6427,8 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>259</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7226,14 +6460,8 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>259</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7265,14 +6493,8 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>259</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7304,14 +6526,8 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>259</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7343,14 +6559,8 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>259</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7382,14 +6592,8 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>259</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7421,14 +6625,8 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>259</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7460,14 +6658,8 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>259</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7499,14 +6691,8 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>259</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7538,14 +6724,8 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>259</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7577,14 +6757,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>259</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7613,17 +6787,11 @@
         <v>369914.845133956</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>259</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7652,17 +6820,11 @@
         <v>370899.607733956</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>259</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7691,17 +6853,11 @@
         <v>370708.214633956</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>259</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7730,17 +6886,11 @@
         <v>371418.458333956</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>259</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7769,17 +6919,11 @@
         <v>371418.458333956</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>259</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7808,17 +6952,11 @@
         <v>373954.210733956</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>259</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -7847,17 +6985,11 @@
         <v>373954.210733956</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>259</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7886,17 +7018,11 @@
         <v>373954.210733956</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>259</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7925,17 +7051,11 @@
         <v>373830.273233956</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>259</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7964,17 +7084,11 @@
         <v>373942.130333956</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>259</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8003,17 +7117,11 @@
         <v>365521.679233956</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>259</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8042,17 +7150,11 @@
         <v>365521.679233956</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>259</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8081,17 +7183,11 @@
         <v>362985.237033956</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>259</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8120,17 +7216,11 @@
         <v>362985.237033956</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>259</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -8159,17 +7249,11 @@
         <v>322489.099533956</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>259</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8198,17 +7282,11 @@
         <v>322489.099533956</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>259</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8237,17 +7315,11 @@
         <v>321800.985233956</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>259</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8276,17 +7348,11 @@
         <v>321810.918233956</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>259</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8315,17 +7381,11 @@
         <v>320567.057833956</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>259</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8357,14 +7417,8 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>259</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8396,14 +7450,8 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>259</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8435,14 +7483,8 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>259</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8474,14 +7516,8 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>259</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8513,14 +7549,8 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>259</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8552,14 +7582,8 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>259</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8591,14 +7615,8 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>259</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8630,14 +7648,8 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>259</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8669,14 +7681,8 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>259</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8708,14 +7714,8 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>259</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8747,14 +7747,8 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>259</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8786,14 +7780,8 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>259</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8825,14 +7813,8 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>259</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8864,14 +7846,8 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>259</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8903,14 +7879,8 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>259</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8942,14 +7912,8 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>259</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8981,14 +7945,8 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>259</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9020,14 +7978,8 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>259</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9059,14 +8011,8 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>259</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9098,14 +8044,8 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>259</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9137,14 +8077,8 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>259</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9176,14 +8110,8 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>259</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9215,14 +8143,8 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>259</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9254,14 +8176,8 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>259</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9293,14 +8209,8 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>259</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9332,14 +8242,8 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>259</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9371,14 +8275,8 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>259</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9410,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>259</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9449,14 +8341,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>259</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9488,14 +8374,8 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>259</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9527,14 +8407,8 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>259</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9566,14 +8440,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>259</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9605,14 +8473,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>259</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9644,14 +8506,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>259</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9683,14 +8539,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>259</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9722,14 +8572,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>259</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9761,14 +8605,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>259</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9800,14 +8638,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>259</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9839,14 +8671,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>259</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9878,14 +8704,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>259</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9917,14 +8737,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>259</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9956,14 +8770,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>259</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -9995,14 +8803,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>259</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10034,14 +8836,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>259</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10070,23 +8866,15 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>259</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
-        <v>1.083803088803089</v>
-      </c>
-      <c r="M247" t="n">
-        <v>1.003875968992248</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -10144,7 +8932,7 @@
         <v>446637.7215249609</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -10177,7 +8965,7 @@
         <v>409874.7891249609</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -10243,7 +9031,7 @@
         <v>432982.9622249609</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -10276,7 +9064,7 @@
         <v>439158.9160249609</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -10309,7 +9097,7 @@
         <v>439140.4565249609</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -10342,7 +9130,7 @@
         <v>438744.0932249608</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -10375,7 +9163,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -10408,7 +9196,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -10441,7 +9229,7 @@
         <v>432925.2660249608</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -10474,7 +9262,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -10507,7 +9295,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -10540,7 +9328,7 @@
         <v>444116.9320249608</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -10573,7 +9361,7 @@
         <v>444116.9320249608</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -10606,7 +9394,7 @@
         <v>440386.4938249608</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -10639,7 +9427,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -10672,7 +9460,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -10738,7 +9526,7 @@
         <v>444029.1026249608</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -10771,7 +9559,7 @@
         <v>444319.1553249608</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -10804,7 +9592,7 @@
         <v>446174.0987249608</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -10837,7 +9625,7 @@
         <v>444852.1997249608</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -10870,7 +9658,7 @@
         <v>445591.4584249608</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -15127,7 +13915,7 @@
         <v>419018.0518714882</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -15160,7 +13948,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -15193,7 +13981,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -15226,7 +14014,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -15259,7 +14047,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -15292,7 +14080,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -15325,7 +14113,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -15358,7 +14146,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -15391,7 +14179,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -15424,7 +14212,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -15457,7 +14245,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -15490,7 +14278,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -19461,6 +18249,6 @@
       <c r="M531" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-16 BackTest BAT.xlsx
+++ b/BackTest/2019-10-16 BackTest BAT.xlsx
@@ -451,7 +451,7 @@
         <v>135680.9618130029</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,10 +484,14 @@
         <v>135285.4095130029</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>259</v>
+      </c>
+      <c r="J3" t="n">
+        <v>259</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -517,11 +521,19 @@
         <v>130409.4375130029</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>258</v>
+      </c>
+      <c r="J4" t="n">
+        <v>259</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L4" t="n">
         <v>1</v>
       </c>
@@ -556,9 +568,13 @@
         <v>257</v>
       </c>
       <c r="J5" t="n">
-        <v>257</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>259</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L5" t="n">
         <v>1</v>
       </c>
@@ -593,11 +609,11 @@
         <v>257</v>
       </c>
       <c r="J6" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L6" t="n">
@@ -628,11 +644,13 @@
         <v>150966.7898130029</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>258</v>
+      </c>
       <c r="J7" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
@@ -673,7 +691,7 @@
         <v>257</v>
       </c>
       <c r="J8" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -714,7 +732,7 @@
         <v>256</v>
       </c>
       <c r="J9" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -753,7 +771,7 @@
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -792,7 +810,7 @@
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -833,7 +851,7 @@
         <v>257</v>
       </c>
       <c r="J12" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
@@ -872,7 +890,7 @@
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -911,7 +929,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -950,7 +968,7 @@
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
@@ -985,11 +1003,13 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
+        <v>256</v>
+      </c>
       <c r="J16" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
@@ -1024,11 +1044,13 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>255</v>
+      </c>
       <c r="J17" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
@@ -1063,11 +1085,13 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>255</v>
+      </c>
       <c r="J18" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -1108,7 +1132,7 @@
         <v>255</v>
       </c>
       <c r="J19" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -1149,7 +1173,7 @@
         <v>256</v>
       </c>
       <c r="J20" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
@@ -1184,13 +1208,11 @@
         <v>145991.9663130029</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
@@ -1225,13 +1247,11 @@
         <v>144724.5034130029</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K22" t="inlineStr">
         <is>
@@ -1266,13 +1286,11 @@
         <v>147143.9514130029</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>256</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -1307,13 +1325,11 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>257</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -1348,13 +1364,11 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
@@ -1389,13 +1403,11 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
@@ -1430,13 +1442,11 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
@@ -1471,13 +1481,11 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>258</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -1512,13 +1520,11 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
@@ -1553,13 +1559,11 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>259</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -1598,7 +1602,7 @@
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -1637,7 +1641,7 @@
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -1676,7 +1680,7 @@
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -1715,7 +1719,7 @@
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -1793,7 +1797,7 @@
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
@@ -1832,7 +1836,7 @@
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K37" t="inlineStr">
         <is>
@@ -1871,7 +1875,7 @@
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -1910,7 +1914,7 @@
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -1949,7 +1953,7 @@
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -1988,7 +1992,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -2027,7 +2031,7 @@
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -2066,7 +2070,7 @@
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -2105,7 +2109,7 @@
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -2144,7 +2148,7 @@
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -2183,7 +2187,7 @@
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -2222,7 +2226,7 @@
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -2261,7 +2265,7 @@
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K48" t="inlineStr">
         <is>
@@ -2300,7 +2304,7 @@
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
@@ -2339,7 +2343,7 @@
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
@@ -2378,7 +2382,7 @@
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -2417,7 +2421,7 @@
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -2456,7 +2460,7 @@
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
@@ -2491,19 +2495,19 @@
         <v>249649.7974702859</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.033910505836576</v>
+        <v>1</v>
       </c>
       <c r="M54" t="inlineStr"/>
     </row>
@@ -2533,8 +2537,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>259</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2576,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>259</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2615,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>259</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2654,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>259</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2693,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>259</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2732,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>259</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2728,11 +2768,17 @@
         <v>286600.6629774019</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>259</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2761,11 +2807,17 @@
         <v>277451.8419774019</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>259</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2794,11 +2846,17 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>259</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +2888,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>259</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +2927,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>259</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +2966,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>259</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2926,11 +3002,17 @@
         <v>269952.7780774019</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>259</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2959,11 +3041,17 @@
         <v>269235.5019774019</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>259</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2992,11 +3080,17 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>259</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -3025,11 +3119,17 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>259</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -3058,11 +3158,17 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>259</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3091,11 +3197,17 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>259</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3124,11 +3236,17 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>259</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3157,11 +3275,17 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>259</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3190,11 +3314,17 @@
         <v>256322.3464774019</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>259</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3223,11 +3353,17 @@
         <v>248930.4311774019</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>259</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3256,11 +3392,17 @@
         <v>248890.4311774019</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>259</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3434,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>259</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3473,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>259</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3512,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>259</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3551,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>259</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3590,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>259</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3629,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>259</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3668,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>259</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3707,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>259</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3746,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>259</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3785,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>259</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +3824,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>259</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +3863,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>259</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +3902,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>259</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +3941,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>259</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +3980,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>259</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4019,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>259</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4058,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>259</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4097,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>259</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4136,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>259</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4175,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>259</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4214,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>259</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4253,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>259</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4292,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>259</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4331,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>259</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4370,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>259</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4409,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>259</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4448,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>259</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4487,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>259</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4526,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>259</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4565,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>259</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4604,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>259</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4643,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>259</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4682,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>259</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4721,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>259</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4760,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>259</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4799,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>259</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +4838,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>259</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +4877,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>259</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +4916,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>259</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +4955,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>259</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +4994,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>259</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5033,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>259</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5072,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>259</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5111,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>259</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5150,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>259</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5189,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>259</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5228,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>259</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5267,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>259</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5306,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>259</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5345,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>259</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5384,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>259</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5423,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>259</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5462,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>259</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5501,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>259</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5540,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>259</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5579,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>259</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5618,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>259</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5657,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>259</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5696,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>259</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5735,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>259</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5774,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>259</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5813,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>259</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +5852,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>259</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +5891,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>259</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +5930,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>259</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +5969,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>259</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6008,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>259</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>259</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6086,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>259</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6125,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>259</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6164,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>259</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6203,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>259</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6242,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>259</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6281,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>259</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6320,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>259</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6359,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>259</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6398,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>259</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6437,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>259</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6476,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>259</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6515,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>259</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6554,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>259</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6593,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>259</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6632,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>259</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6671,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>259</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6710,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>259</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6749,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>259</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6788,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>259</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +6827,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>259</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +6866,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>259</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +6905,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>259</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +6944,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>259</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +6983,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>259</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7022,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>259</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7061,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>259</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7100,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>259</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7139,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>259</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7178,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>259</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7217,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>259</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7256,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>259</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7295,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>259</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7334,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>259</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7373,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>259</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7412,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>259</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7451,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>259</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7490,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>259</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7529,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>259</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6787,11 +7565,17 @@
         <v>369914.845133956</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>259</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6820,11 +7604,17 @@
         <v>370899.607733956</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>259</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6853,11 +7643,17 @@
         <v>370708.214633956</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>259</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +7682,17 @@
         <v>371418.458333956</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>259</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +7721,17 @@
         <v>371418.458333956</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>259</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +7760,17 @@
         <v>373954.210733956</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>259</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7799,17 @@
         <v>373954.210733956</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>259</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7838,17 @@
         <v>373954.210733956</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>259</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7877,17 @@
         <v>373830.273233956</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>259</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -7084,11 +7916,17 @@
         <v>373942.130333956</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>259</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -7117,11 +7955,17 @@
         <v>365521.679233956</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>259</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -7150,11 +7994,17 @@
         <v>365521.679233956</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>259</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -7183,11 +8033,17 @@
         <v>362985.237033956</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>259</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -7216,11 +8072,17 @@
         <v>362985.237033956</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>259</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -7249,11 +8111,17 @@
         <v>322489.099533956</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>259</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -7282,11 +8150,17 @@
         <v>322489.099533956</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>259</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -7315,11 +8189,17 @@
         <v>321800.985233956</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>259</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7348,11 +8228,17 @@
         <v>321810.918233956</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>259</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7381,11 +8267,17 @@
         <v>320567.057833956</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>259</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7417,8 +8309,14 @@
         <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>259</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7450,8 +8348,14 @@
         <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>259</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -7483,8 +8387,14 @@
         <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>259</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7516,8 +8426,14 @@
         <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>259</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -7549,8 +8465,14 @@
         <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>259</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -7582,8 +8504,14 @@
         <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>259</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -7615,8 +8543,14 @@
         <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>259</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -7648,8 +8582,14 @@
         <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>259</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -7681,8 +8621,14 @@
         <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>259</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -7714,8 +8660,14 @@
         <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>259</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -7747,8 +8699,14 @@
         <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>259</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -7780,8 +8738,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>259</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -7813,8 +8777,14 @@
         <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>259</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -7846,8 +8816,14 @@
         <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>259</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -7879,8 +8855,14 @@
         <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>259</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -7912,8 +8894,14 @@
         <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>259</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -7945,8 +8933,14 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>259</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -7978,8 +8972,14 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>259</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -8011,8 +9011,14 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>259</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -8044,8 +9050,14 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>259</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -8077,8 +9089,14 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>259</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -8110,8 +9128,14 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>259</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -8143,8 +9167,14 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>259</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -8176,8 +9206,14 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>259</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -8209,8 +9245,14 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>259</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -8242,8 +9284,14 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>259</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -8275,8 +9323,14 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>259</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -8308,8 +9362,14 @@
         <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>259</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -8341,8 +9401,14 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>259</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -8374,8 +9440,14 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>259</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -8407,8 +9479,14 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>259</v>
+      </c>
+      <c r="K233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -8440,8 +9518,14 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>259</v>
+      </c>
+      <c r="K234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -8473,8 +9557,14 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>259</v>
+      </c>
+      <c r="K235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -8506,8 +9596,14 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>259</v>
+      </c>
+      <c r="K236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -8536,15 +9632,23 @@
         <v>438721.7664249609</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>259</v>
+      </c>
+      <c r="K237" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L237" t="n">
-        <v>1</v>
-      </c>
-      <c r="M237" t="inlineStr"/>
+        <v>1.072220077220077</v>
+      </c>
+      <c r="M237" t="n">
+        <v>1.003875968992248</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -8569,7 +9673,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8602,7 +9706,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8635,7 +9739,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8668,7 +9772,7 @@
         <v>431615.2486249609</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8701,7 +9805,7 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8734,7 +9838,7 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8767,7 +9871,7 @@
         <v>434072.6167249609</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8800,7 +9904,7 @@
         <v>435651.7786249609</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8833,7 +9937,7 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8866,7 +9970,7 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8899,7 +10003,7 @@
         <v>428391.7672249609</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8932,7 +10036,7 @@
         <v>446637.7215249609</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8965,7 +10069,7 @@
         <v>409874.7891249609</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8998,7 +10102,7 @@
         <v>433672.9346249609</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -9031,7 +10135,7 @@
         <v>432982.9622249609</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -9064,7 +10168,7 @@
         <v>439158.9160249609</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -9097,7 +10201,7 @@
         <v>439140.4565249609</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -9130,7 +10234,7 @@
         <v>438744.0932249608</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -9163,7 +10267,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -9196,7 +10300,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -9229,7 +10333,7 @@
         <v>432925.2660249608</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -9262,7 +10366,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -13915,7 +15019,7 @@
         <v>419018.0518714882</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13948,7 +15052,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13981,7 +15085,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14014,7 +15118,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14047,7 +15151,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -14080,7 +15184,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14113,7 +15217,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -14146,7 +15250,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -14179,7 +15283,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -14212,7 +15316,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -14245,7 +15349,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -14278,7 +15382,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
